--- a/data/countyPreK.xlsx
+++ b/data/countyPreK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmainza/Desktop/projects/county-index/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmainza/Desktop/projects/county-index/county-index/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F088CFF-6DDD-E444-9234-846D93C9D360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B11250F-2279-1F4C-A0F8-D686C5F980AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36680" yWindow="4280" windowWidth="36680" windowHeight="21140" xr2:uid="{5093B0CD-B89D-3E45-A10D-046600377051}"/>
+    <workbookView xWindow="-28760" yWindow="960" windowWidth="26840" windowHeight="15940" xr2:uid="{18CB6A17-97DD-9945-A270-4ECE9B3E09CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,529 +34,537 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+  <si>
+    <t>Appling County</t>
+  </si>
+  <si>
+    <t>Atkinson County</t>
+  </si>
+  <si>
+    <t>Bacon County</t>
+  </si>
+  <si>
+    <t>Baker County</t>
+  </si>
+  <si>
+    <t>Baldwin County</t>
+  </si>
+  <si>
+    <t>Banks County</t>
+  </si>
+  <si>
+    <t>Barrow County</t>
+  </si>
+  <si>
+    <t>Bartow County</t>
+  </si>
+  <si>
+    <t>Ben Hill County</t>
+  </si>
+  <si>
+    <t>Berrien County</t>
+  </si>
+  <si>
+    <t>Bibb County</t>
+  </si>
+  <si>
+    <t>Bleckley County</t>
+  </si>
+  <si>
+    <t>Brantley County</t>
+  </si>
+  <si>
+    <t>Brooks County</t>
+  </si>
+  <si>
+    <t>Bryan County</t>
+  </si>
+  <si>
+    <t>Bulloch County</t>
+  </si>
+  <si>
+    <t>Burke County</t>
+  </si>
+  <si>
+    <t>Butts County</t>
+  </si>
+  <si>
+    <t>Calhoun County</t>
+  </si>
+  <si>
+    <t>Camden County</t>
+  </si>
+  <si>
+    <t>Candler County</t>
+  </si>
+  <si>
+    <t>Carroll County</t>
+  </si>
+  <si>
+    <t>Catoosa County</t>
+  </si>
+  <si>
+    <t>Charlton County</t>
+  </si>
+  <si>
+    <t>Chatham County</t>
+  </si>
+  <si>
+    <t>Chattahoochee County</t>
+  </si>
+  <si>
+    <t>Chattooga County</t>
+  </si>
+  <si>
+    <t>Cherokee County</t>
+  </si>
+  <si>
+    <t>Clarke County</t>
+  </si>
+  <si>
+    <t>Clay County</t>
+  </si>
+  <si>
+    <t>Clayton County</t>
+  </si>
+  <si>
+    <t>Clinch County</t>
+  </si>
+  <si>
+    <t>Cobb County</t>
+  </si>
+  <si>
+    <t>Coffee County</t>
+  </si>
+  <si>
+    <t>Colquitt County</t>
+  </si>
+  <si>
+    <t>Columbia County</t>
+  </si>
+  <si>
+    <t>Cook County</t>
+  </si>
+  <si>
+    <t>Coweta County</t>
+  </si>
+  <si>
+    <t>Crawford County</t>
+  </si>
+  <si>
+    <t>Crisp County</t>
+  </si>
+  <si>
+    <t>Dade County</t>
+  </si>
+  <si>
+    <t>Dawson County</t>
+  </si>
+  <si>
+    <t>Decatur County</t>
+  </si>
+  <si>
+    <t>DeKalb County</t>
+  </si>
+  <si>
+    <t>Dodge County</t>
+  </si>
+  <si>
+    <t>Dooly County</t>
+  </si>
+  <si>
+    <t>Dougherty County</t>
+  </si>
+  <si>
+    <t>Douglas County</t>
+  </si>
+  <si>
+    <t>Early County</t>
+  </si>
+  <si>
+    <t>Echols County</t>
+  </si>
+  <si>
+    <t>Effingham County</t>
+  </si>
+  <si>
+    <t>Elbert County</t>
+  </si>
+  <si>
+    <t>Emanuel County</t>
+  </si>
+  <si>
+    <t>Evans County</t>
+  </si>
+  <si>
+    <t>Fannin County</t>
+  </si>
+  <si>
+    <t>Fayette County</t>
+  </si>
+  <si>
+    <t>Floyd County</t>
+  </si>
+  <si>
+    <t>Forsyth County</t>
+  </si>
+  <si>
+    <t>Franklin County</t>
+  </si>
+  <si>
+    <t>Fulton County</t>
+  </si>
+  <si>
+    <t>Gilmer County</t>
+  </si>
+  <si>
+    <t>Glascock County</t>
+  </si>
+  <si>
+    <t>Glynn County</t>
+  </si>
+  <si>
+    <t>Gordon County</t>
+  </si>
+  <si>
+    <t>Grady County</t>
+  </si>
+  <si>
+    <t>Greene County</t>
+  </si>
+  <si>
+    <t>Gwinnett County</t>
+  </si>
+  <si>
+    <t>Habersham County</t>
+  </si>
+  <si>
+    <t>Hall County</t>
+  </si>
+  <si>
+    <t>Hancock County</t>
+  </si>
+  <si>
+    <t>Haralson County</t>
+  </si>
+  <si>
+    <t>Harris County</t>
+  </si>
+  <si>
+    <t>Hart County</t>
+  </si>
+  <si>
+    <t>Heard County</t>
+  </si>
+  <si>
+    <t>Henry County</t>
+  </si>
+  <si>
+    <t>Houston County</t>
+  </si>
+  <si>
+    <t>Irwin County</t>
+  </si>
+  <si>
+    <t>Jackson County</t>
+  </si>
+  <si>
+    <t>Jasper County</t>
+  </si>
+  <si>
+    <t>Jeff Davis County</t>
+  </si>
+  <si>
+    <t>Jefferson County</t>
+  </si>
+  <si>
+    <t>Jenkins County</t>
+  </si>
+  <si>
+    <t>Johnson County</t>
+  </si>
+  <si>
+    <t>Jones County</t>
+  </si>
+  <si>
+    <t>Lamar County</t>
+  </si>
+  <si>
+    <t>Lanier County</t>
+  </si>
+  <si>
+    <t>Laurens County</t>
+  </si>
+  <si>
+    <t>Lee County</t>
+  </si>
+  <si>
+    <t>Liberty County</t>
+  </si>
+  <si>
+    <t>Lincoln County</t>
+  </si>
+  <si>
+    <t>Long County</t>
+  </si>
+  <si>
+    <t>Lowndes County</t>
+  </si>
+  <si>
+    <t>Lumpkin County</t>
+  </si>
+  <si>
+    <t>Macon County</t>
+  </si>
+  <si>
+    <t>Madison County</t>
+  </si>
+  <si>
+    <t>Marion County</t>
+  </si>
+  <si>
+    <t>McDuffie County</t>
+  </si>
+  <si>
+    <t>McIntosh County</t>
+  </si>
+  <si>
+    <t>Meriwether County</t>
+  </si>
+  <si>
+    <t>Miller County</t>
+  </si>
+  <si>
+    <t>Mitchell County</t>
+  </si>
+  <si>
+    <t>Monroe County</t>
+  </si>
+  <si>
+    <t>Montgomery County</t>
+  </si>
+  <si>
+    <t>Morgan County</t>
+  </si>
+  <si>
+    <t>Murray County</t>
+  </si>
+  <si>
+    <t>Muscogee County</t>
+  </si>
+  <si>
+    <t>Newton County</t>
+  </si>
+  <si>
+    <t>Oconee County</t>
+  </si>
+  <si>
+    <t>Oglethorpe County</t>
+  </si>
+  <si>
+    <t>Paulding County</t>
+  </si>
+  <si>
+    <t>Peach County</t>
+  </si>
+  <si>
+    <t>Pickens County</t>
+  </si>
+  <si>
+    <t>Pierce County</t>
+  </si>
+  <si>
+    <t>Pike County</t>
+  </si>
+  <si>
+    <t>Polk County</t>
+  </si>
+  <si>
+    <t>Pulaski County</t>
+  </si>
+  <si>
+    <t>Putnam County</t>
+  </si>
+  <si>
+    <t>Quitman County</t>
+  </si>
+  <si>
+    <t>Rabun County</t>
+  </si>
+  <si>
+    <t>Randolph County</t>
+  </si>
+  <si>
+    <t>Richmond County</t>
+  </si>
+  <si>
+    <t>Rockdale County</t>
+  </si>
+  <si>
+    <t>Schley County</t>
+  </si>
+  <si>
+    <t>Screven County</t>
+  </si>
+  <si>
+    <t>Seminole County</t>
+  </si>
+  <si>
+    <t>Spalding County</t>
+  </si>
+  <si>
+    <t>Stephens County</t>
+  </si>
+  <si>
+    <t>Stewart County</t>
+  </si>
+  <si>
+    <t>Sumter County</t>
+  </si>
+  <si>
+    <t>Talbot County</t>
+  </si>
+  <si>
+    <t>Taliaferro County</t>
+  </si>
+  <si>
+    <t>Tattnall County</t>
+  </si>
+  <si>
+    <t>Taylor County</t>
+  </si>
+  <si>
+    <t>Telfair County</t>
+  </si>
+  <si>
+    <t>Terrell County</t>
+  </si>
+  <si>
+    <t>Thomas County</t>
+  </si>
+  <si>
+    <t>Tift County</t>
+  </si>
+  <si>
+    <t>Toombs County</t>
+  </si>
+  <si>
+    <t>Towns County</t>
+  </si>
+  <si>
+    <t>Treutlen County</t>
+  </si>
+  <si>
+    <t>Troup County</t>
+  </si>
+  <si>
+    <t>Turner County</t>
+  </si>
+  <si>
+    <t>Twiggs County</t>
+  </si>
+  <si>
+    <t>Union County</t>
+  </si>
+  <si>
+    <t>Upson County</t>
+  </si>
+  <si>
+    <t>Walker County</t>
+  </si>
+  <si>
+    <t>Walton County</t>
+  </si>
+  <si>
+    <t>Ware County</t>
+  </si>
+  <si>
+    <t>Warren County</t>
+  </si>
+  <si>
+    <t>Washington County</t>
+  </si>
+  <si>
+    <t>Wayne County</t>
+  </si>
+  <si>
+    <t>Webster County</t>
+  </si>
+  <si>
+    <t>Wheeler County</t>
+  </si>
+  <si>
+    <t>White County</t>
+  </si>
+  <si>
+    <t>Whitfield County</t>
+  </si>
+  <si>
+    <t>Wilcox County</t>
+  </si>
+  <si>
+    <t>Wilkes County</t>
+  </si>
+  <si>
+    <t>Wilkinson County</t>
+  </si>
+  <si>
+    <t>Worth County</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>2010 % 4 in Pre-K</t>
+  </si>
+  <si>
+    <t>2011 % 4 in Pre-K</t>
+  </si>
+  <si>
+    <t>2012 % 4 in Pre-K</t>
+  </si>
+  <si>
+    <t>2013 % 4 in Pre-K</t>
+  </si>
+  <si>
+    <t>2014 % 4 in Pre-K</t>
+  </si>
+  <si>
+    <t>2015 % 4 in Pre-K</t>
+  </si>
+  <si>
+    <t>2016 % 4 in Pre-K</t>
+  </si>
+  <si>
+    <t>2017 % 4 in Pre-K</t>
+  </si>
+  <si>
+    <t>2018 % 4 in Pre-K</t>
+  </si>
+  <si>
+    <t>2019 % 4 in Pre-K</t>
+  </si>
   <si>
     <t>FIPS</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t>Appling County</t>
-  </si>
-  <si>
-    <t>Atkinson County</t>
-  </si>
-  <si>
-    <t>Bacon County</t>
-  </si>
-  <si>
-    <t>Baker County</t>
-  </si>
-  <si>
-    <t>Baldwin County</t>
-  </si>
-  <si>
-    <t>Banks County</t>
-  </si>
-  <si>
-    <t>Barrow County</t>
-  </si>
-  <si>
-    <t>Bartow County</t>
-  </si>
-  <si>
-    <t>Ben Hill County</t>
-  </si>
-  <si>
-    <t>Berrien County</t>
-  </si>
-  <si>
-    <t>Bibb County</t>
-  </si>
-  <si>
-    <t>Bleckley County</t>
-  </si>
-  <si>
-    <t>Brantley County</t>
-  </si>
-  <si>
-    <t>Brooks County</t>
-  </si>
-  <si>
-    <t>Bryan County</t>
-  </si>
-  <si>
-    <t>Bulloch County</t>
-  </si>
-  <si>
-    <t>Burke County</t>
-  </si>
-  <si>
-    <t>Butts County</t>
-  </si>
-  <si>
-    <t>Calhoun County</t>
-  </si>
-  <si>
-    <t>Camden County</t>
-  </si>
-  <si>
-    <t>Candler County</t>
-  </si>
-  <si>
-    <t>Carroll County</t>
-  </si>
-  <si>
-    <t>Catoosa County</t>
-  </si>
-  <si>
-    <t>Charlton County</t>
-  </si>
-  <si>
-    <t>Chatham County</t>
-  </si>
-  <si>
-    <t>Chattahoochee County</t>
-  </si>
-  <si>
-    <t>Chattooga County</t>
-  </si>
-  <si>
-    <t>Cherokee County</t>
-  </si>
-  <si>
-    <t>Clarke County</t>
-  </si>
-  <si>
-    <t>Clay County</t>
-  </si>
-  <si>
-    <t>Clayton County</t>
-  </si>
-  <si>
-    <t>Clinch County</t>
-  </si>
-  <si>
-    <t>Cobb County</t>
-  </si>
-  <si>
-    <t>Coffee County</t>
-  </si>
-  <si>
-    <t>Colquitt County</t>
-  </si>
-  <si>
-    <t>Columbia County</t>
-  </si>
-  <si>
-    <t>Cook County</t>
-  </si>
-  <si>
-    <t>Coweta County</t>
-  </si>
-  <si>
-    <t>Crawford County</t>
-  </si>
-  <si>
-    <t>Crisp County</t>
-  </si>
-  <si>
-    <t>Dade County</t>
-  </si>
-  <si>
-    <t>Dawson County</t>
-  </si>
-  <si>
-    <t>Decatur County</t>
-  </si>
-  <si>
-    <t>DeKalb County</t>
-  </si>
-  <si>
-    <t>Dodge County</t>
-  </si>
-  <si>
-    <t>Dooly County</t>
-  </si>
-  <si>
-    <t>Dougherty County</t>
-  </si>
-  <si>
-    <t>Douglas County</t>
-  </si>
-  <si>
-    <t>Early County</t>
-  </si>
-  <si>
-    <t>Echols County</t>
-  </si>
-  <si>
-    <t>Effingham County</t>
-  </si>
-  <si>
-    <t>Elbert County</t>
-  </si>
-  <si>
-    <t>Emanuel County</t>
-  </si>
-  <si>
-    <t>Evans County</t>
-  </si>
-  <si>
-    <t>Fannin County</t>
-  </si>
-  <si>
-    <t>Fayette County</t>
-  </si>
-  <si>
-    <t>Floyd County</t>
-  </si>
-  <si>
-    <t>Forsyth County</t>
-  </si>
-  <si>
-    <t>Franklin County</t>
-  </si>
-  <si>
-    <t>Fulton County</t>
-  </si>
-  <si>
-    <t>Gilmer County</t>
-  </si>
-  <si>
-    <t>Glascock County</t>
-  </si>
-  <si>
-    <t>Glynn County</t>
-  </si>
-  <si>
-    <t>Gordon County</t>
-  </si>
-  <si>
-    <t>Grady County</t>
-  </si>
-  <si>
-    <t>Greene County</t>
-  </si>
-  <si>
-    <t>Gwinnett County</t>
-  </si>
-  <si>
-    <t>Habersham County</t>
-  </si>
-  <si>
-    <t>Hall County</t>
-  </si>
-  <si>
-    <t>Hancock County</t>
-  </si>
-  <si>
-    <t>Haralson County</t>
-  </si>
-  <si>
-    <t>Harris County</t>
-  </si>
-  <si>
-    <t>Hart County</t>
-  </si>
-  <si>
-    <t>Heard County</t>
-  </si>
-  <si>
-    <t>Henry County</t>
-  </si>
-  <si>
-    <t>Houston County</t>
-  </si>
-  <si>
-    <t>Irwin County</t>
-  </si>
-  <si>
-    <t>Jackson County</t>
-  </si>
-  <si>
-    <t>Jasper County</t>
-  </si>
-  <si>
-    <t>Jeff Davis County</t>
-  </si>
-  <si>
-    <t>Jefferson County</t>
-  </si>
-  <si>
-    <t>Jenkins County</t>
-  </si>
-  <si>
-    <t>Johnson County</t>
-  </si>
-  <si>
-    <t>Jones County</t>
-  </si>
-  <si>
-    <t>Lamar County</t>
-  </si>
-  <si>
-    <t>Lanier County</t>
-  </si>
-  <si>
-    <t>Laurens County</t>
-  </si>
-  <si>
-    <t>Lee County</t>
-  </si>
-  <si>
-    <t>Liberty County</t>
-  </si>
-  <si>
-    <t>Lincoln County</t>
-  </si>
-  <si>
-    <t>Long County</t>
-  </si>
-  <si>
-    <t>Lowndes County</t>
-  </si>
-  <si>
-    <t>Lumpkin County</t>
-  </si>
-  <si>
-    <t>McDuffie County</t>
-  </si>
-  <si>
-    <t>McIntosh County</t>
-  </si>
-  <si>
-    <t>Macon County</t>
-  </si>
-  <si>
-    <t>Madison County</t>
-  </si>
-  <si>
-    <t>Marion County</t>
-  </si>
-  <si>
-    <t>Meriwether County</t>
-  </si>
-  <si>
-    <t>Miller County</t>
-  </si>
-  <si>
-    <t>Mitchell County</t>
-  </si>
-  <si>
-    <t>Monroe County</t>
-  </si>
-  <si>
-    <t>Montgomery County</t>
-  </si>
-  <si>
-    <t>Morgan County</t>
-  </si>
-  <si>
-    <t>Murray County</t>
-  </si>
-  <si>
-    <t>Muscogee County</t>
-  </si>
-  <si>
-    <t>Newton County</t>
-  </si>
-  <si>
-    <t>Oconee County</t>
-  </si>
-  <si>
-    <t>Oglethorpe County</t>
-  </si>
-  <si>
-    <t>Paulding County</t>
-  </si>
-  <si>
-    <t>Peach County</t>
-  </si>
-  <si>
-    <t>Pickens County</t>
-  </si>
-  <si>
-    <t>Pierce County</t>
-  </si>
-  <si>
-    <t>Pike County</t>
-  </si>
-  <si>
-    <t>Polk County</t>
-  </si>
-  <si>
-    <t>Pulaski County</t>
-  </si>
-  <si>
-    <t>Putnam County</t>
-  </si>
-  <si>
-    <t>Quitman County</t>
-  </si>
-  <si>
-    <t>Rabun County</t>
-  </si>
-  <si>
-    <t>Randolph County</t>
-  </si>
-  <si>
-    <t>Richmond County</t>
-  </si>
-  <si>
-    <t>Rockdale County</t>
-  </si>
-  <si>
-    <t>Schley County</t>
-  </si>
-  <si>
-    <t>Screven County</t>
-  </si>
-  <si>
-    <t>Seminole County</t>
-  </si>
-  <si>
-    <t>Spalding County</t>
-  </si>
-  <si>
-    <t>Stephens County</t>
-  </si>
-  <si>
-    <t>Stewart County</t>
-  </si>
-  <si>
-    <t>Sumter County</t>
-  </si>
-  <si>
-    <t>Talbot County</t>
-  </si>
-  <si>
-    <t>Taliaferro County</t>
-  </si>
-  <si>
-    <t>Tattnall County</t>
-  </si>
-  <si>
-    <t>Taylor County</t>
-  </si>
-  <si>
-    <t>Telfair County</t>
-  </si>
-  <si>
-    <t>Terrell County</t>
-  </si>
-  <si>
-    <t>Thomas County</t>
-  </si>
-  <si>
-    <t>Tift County</t>
-  </si>
-  <si>
-    <t>Toombs County</t>
-  </si>
-  <si>
-    <t>Towns County</t>
-  </si>
-  <si>
-    <t>Treutlen County</t>
-  </si>
-  <si>
-    <t>Troup County</t>
-  </si>
-  <si>
-    <t>Turner County</t>
-  </si>
-  <si>
-    <t>Twiggs County</t>
-  </si>
-  <si>
-    <t>Union County</t>
-  </si>
-  <si>
-    <t>Upson County</t>
-  </si>
-  <si>
-    <t>Walker County</t>
-  </si>
-  <si>
-    <t>Walton County</t>
-  </si>
-  <si>
-    <t>Ware County</t>
-  </si>
-  <si>
-    <t>Warren County</t>
-  </si>
-  <si>
-    <t>Washington County</t>
-  </si>
-  <si>
-    <t>Wayne County</t>
-  </si>
-  <si>
-    <t>Webster County</t>
-  </si>
-  <si>
-    <t>Wheeler County</t>
-  </si>
-  <si>
-    <t>White County</t>
-  </si>
-  <si>
-    <t>Whitfield County</t>
-  </si>
-  <si>
-    <t>Wilcox County</t>
-  </si>
-  <si>
-    <t>Wilkes County</t>
-  </si>
-  <si>
-    <t>Wilkinson County</t>
-  </si>
-  <si>
-    <t>Worth County</t>
-  </si>
-  <si>
-    <t>2018  % 3 and 4 in Pre-K</t>
-  </si>
-  <si>
-    <t>2017  % 3 and 4 in Pre-K</t>
-  </si>
-  <si>
-    <t>2016  % 3 and 4 in Pre-K</t>
-  </si>
-  <si>
-    <t>2015  % 3 and 4 in Pre-K</t>
-  </si>
-  <si>
-    <t>2014  % 3 and 4 in Pre-K</t>
-  </si>
-  <si>
-    <t>2013  % 3 and 4 in Pre-K</t>
-  </si>
-  <si>
-    <t>2012  % 3 and 4 in Pre-K</t>
-  </si>
-  <si>
-    <t>2011  % 3 and 4 in Pre-K</t>
-  </si>
-  <si>
-    <t>2010  % 3 and 4 in Pre-K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -578,8 +587,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,5613 +905,6096 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C64BBA-D3F9-E341-9A9A-01F9C3538B85}">
-  <dimension ref="A1:K160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D8AE53-1EB3-BE4A-9284-7DB7EB6D537D}">
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" t="s">
         <v>161</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>162</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>163</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>164</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>165</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>166</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>167</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>168</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>13001</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>28.6</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>30.2</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>32.9</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="F2">
-        <v>35</v>
+        <v>85.26</v>
       </c>
       <c r="G2">
-        <v>35.9</v>
+        <v>85.26</v>
       </c>
       <c r="H2">
-        <v>33</v>
+        <v>81.27</v>
       </c>
       <c r="I2">
-        <v>21</v>
+        <v>85.26</v>
       </c>
       <c r="J2">
-        <v>23.4</v>
+        <v>82.07</v>
       </c>
       <c r="K2">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78.09</v>
+      </c>
+      <c r="L2">
+        <v>76.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13003</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>49.3</v>
+        <v>85.47</v>
       </c>
       <c r="D3">
-        <v>45.3</v>
+        <v>82.4</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>74.83</v>
       </c>
       <c r="F3">
-        <v>48.8</v>
+        <v>65.22</v>
       </c>
       <c r="G3">
-        <v>50.8</v>
+        <v>68.319999999999993</v>
       </c>
       <c r="H3">
-        <v>54.8</v>
+        <v>61.49</v>
       </c>
       <c r="I3">
-        <v>63.9</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="J3">
-        <v>60.8</v>
+        <v>61.49</v>
       </c>
       <c r="K3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="L3">
+        <v>88.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13005</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>33.299999999999997</v>
+        <v>59.7</v>
       </c>
       <c r="D4">
-        <v>33.6</v>
+        <v>65.19</v>
       </c>
       <c r="E4">
-        <v>43.6</v>
+        <v>48.35</v>
       </c>
       <c r="F4">
-        <v>45.4</v>
+        <v>53.66</v>
       </c>
       <c r="G4">
-        <v>42.7</v>
+        <v>53.66</v>
       </c>
       <c r="H4">
-        <v>31.7</v>
+        <v>53.66</v>
       </c>
       <c r="I4">
-        <v>22.6</v>
+        <v>53.66</v>
       </c>
       <c r="J4">
-        <v>12.3</v>
+        <v>53.66</v>
       </c>
       <c r="K4">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53.66</v>
+      </c>
+      <c r="L4">
+        <v>56.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13007</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>57.9</v>
+        <v>38.46</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>68.8</v>
+        <v>37.29</v>
       </c>
       <c r="F5">
-        <v>65</v>
+        <v>34.69</v>
       </c>
       <c r="G5">
-        <v>87.2</v>
+        <v>40.82</v>
       </c>
       <c r="H5">
-        <v>70.900000000000006</v>
+        <v>22.45</v>
       </c>
       <c r="I5">
-        <v>65.900000000000006</v>
+        <v>40.82</v>
       </c>
       <c r="J5">
-        <v>77.3</v>
+        <v>30.61</v>
       </c>
       <c r="K5">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22.45</v>
+      </c>
+      <c r="L5">
+        <v>56.41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>13009</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>51.3</v>
+        <v>68.349999999999994</v>
       </c>
       <c r="D6">
-        <v>47.4</v>
+        <v>76.92</v>
       </c>
       <c r="E6">
-        <v>39.299999999999997</v>
+        <v>76.67</v>
       </c>
       <c r="F6">
-        <v>37.1</v>
+        <v>77.739999999999995</v>
       </c>
       <c r="G6">
-        <v>39</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="H6">
-        <v>38.200000000000003</v>
+        <v>71.73</v>
       </c>
       <c r="I6">
-        <v>38.700000000000003</v>
+        <v>67.489999999999995</v>
       </c>
       <c r="J6">
-        <v>35.799999999999997</v>
+        <v>68.37</v>
       </c>
       <c r="K6">
-        <v>39.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="L6">
+        <v>81.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13011</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>32.4</v>
+        <v>27.8</v>
       </c>
       <c r="D7">
-        <v>49.3</v>
+        <v>25.29</v>
       </c>
       <c r="E7">
-        <v>47.1</v>
+        <v>28.82</v>
       </c>
       <c r="F7">
-        <v>51.1</v>
+        <v>32.51</v>
       </c>
       <c r="G7">
-        <v>50.8</v>
+        <v>42.36</v>
       </c>
       <c r="H7">
-        <v>44.4</v>
+        <v>41.38</v>
       </c>
       <c r="I7">
-        <v>40.799999999999997</v>
+        <v>41.87</v>
       </c>
       <c r="J7">
-        <v>42.6</v>
+        <v>42.36</v>
       </c>
       <c r="K7">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42.36</v>
+      </c>
+      <c r="L7">
+        <v>32.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>13013</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>52.1</v>
+        <v>71.41</v>
       </c>
       <c r="D8">
-        <v>54.8</v>
+        <v>67.02</v>
       </c>
       <c r="E8">
-        <v>48.7</v>
+        <v>58.05</v>
       </c>
       <c r="F8">
-        <v>47.6</v>
+        <v>60.12</v>
       </c>
       <c r="G8">
-        <v>45.8</v>
+        <v>56.82</v>
       </c>
       <c r="H8">
-        <v>40.5</v>
+        <v>56.73</v>
       </c>
       <c r="I8">
-        <v>47.1</v>
+        <v>58.76</v>
       </c>
       <c r="J8">
-        <v>47.6</v>
+        <v>57.66</v>
       </c>
       <c r="K8">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58.09</v>
+      </c>
+      <c r="L8">
+        <v>62.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13015</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>58.92</v>
       </c>
       <c r="D9">
-        <v>33.1</v>
+        <v>56.98</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>53.96</v>
       </c>
       <c r="F9">
-        <v>31.8</v>
+        <v>55.01</v>
       </c>
       <c r="G9">
-        <v>35.799999999999997</v>
+        <v>55.8</v>
       </c>
       <c r="H9">
-        <v>34.299999999999997</v>
+        <v>56.96</v>
       </c>
       <c r="I9">
-        <v>31</v>
+        <v>56.96</v>
       </c>
       <c r="J9">
-        <v>37.700000000000003</v>
+        <v>55.66</v>
       </c>
       <c r="K9">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58.69</v>
+      </c>
+      <c r="L9">
+        <v>57.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>13017</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>34.700000000000003</v>
+        <v>66.3</v>
       </c>
       <c r="D10">
-        <v>31.9</v>
+        <v>73.06</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>68.66</v>
       </c>
       <c r="F10">
-        <v>23.6</v>
+        <v>61.11</v>
       </c>
       <c r="G10">
-        <v>37.9</v>
+        <v>61.11</v>
       </c>
       <c r="H10">
-        <v>48.8</v>
+        <v>68.06</v>
       </c>
       <c r="I10">
-        <v>57.9</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="J10">
-        <v>52.6</v>
+        <v>57.64</v>
       </c>
       <c r="K10">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59.72</v>
+      </c>
+      <c r="L10">
+        <v>81.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>13019</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>30.3</v>
+        <v>67.52</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>64.83</v>
       </c>
       <c r="E11">
-        <v>38.9</v>
+        <v>55.04</v>
       </c>
       <c r="F11">
-        <v>38</v>
+        <v>50.19</v>
       </c>
       <c r="G11">
-        <v>41.3</v>
+        <v>50.19</v>
       </c>
       <c r="H11">
-        <v>58.3</v>
+        <v>55.89</v>
       </c>
       <c r="I11">
-        <v>44.3</v>
+        <v>55.13</v>
       </c>
       <c r="J11">
-        <v>46.9</v>
+        <v>62.36</v>
       </c>
       <c r="K11">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64.260000000000005</v>
+      </c>
+      <c r="L11">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>13021</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>53.7</v>
+        <v>51.55</v>
       </c>
       <c r="D12">
-        <v>50.9</v>
+        <v>51.95</v>
       </c>
       <c r="E12">
-        <v>47.4</v>
+        <v>51.04</v>
       </c>
       <c r="F12">
-        <v>48.7</v>
+        <v>46.17</v>
       </c>
       <c r="G12">
-        <v>47.9</v>
+        <v>48.26</v>
       </c>
       <c r="H12">
-        <v>48.9</v>
+        <v>46.17</v>
       </c>
       <c r="I12">
-        <v>50.3</v>
+        <v>49.94</v>
       </c>
       <c r="J12">
-        <v>48.9</v>
+        <v>51.33</v>
       </c>
       <c r="K12">
-        <v>52.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54.32</v>
+      </c>
+      <c r="L12">
+        <v>59.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13023</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>56.6</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>39.6</v>
+        <v>92.77</v>
       </c>
       <c r="F13">
-        <v>49</v>
+        <v>99.35</v>
       </c>
       <c r="G13">
-        <v>45.4</v>
+        <v>97.42</v>
       </c>
       <c r="H13">
-        <v>38.299999999999997</v>
+        <v>94.19</v>
       </c>
       <c r="I13">
-        <v>53.9</v>
+        <v>96.13</v>
       </c>
       <c r="J13">
-        <v>51</v>
+        <v>99.35</v>
       </c>
       <c r="K13">
-        <v>34.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>97.42</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13025</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>81.819999999999993</v>
       </c>
       <c r="D14">
-        <v>32.4</v>
+        <v>88.43</v>
       </c>
       <c r="E14">
-        <v>37.6</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="F14">
-        <v>44.1</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="G14">
-        <v>54.2</v>
+        <v>69.12</v>
       </c>
       <c r="H14">
-        <v>37.6</v>
+        <v>70.22</v>
       </c>
       <c r="I14">
-        <v>42.8</v>
+        <v>66.540000000000006</v>
       </c>
       <c r="J14">
-        <v>42.1</v>
+        <v>70.59</v>
       </c>
       <c r="K14">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="L14">
+        <v>81.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13027</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>32.700000000000003</v>
+        <v>57.69</v>
       </c>
       <c r="D15">
-        <v>48.2</v>
+        <v>62.8</v>
       </c>
       <c r="E15">
-        <v>67.2</v>
+        <v>47.96</v>
       </c>
       <c r="F15">
-        <v>59.3</v>
+        <v>57.73</v>
       </c>
       <c r="G15">
-        <v>58.7</v>
+        <v>53.64</v>
       </c>
       <c r="H15">
-        <v>54.1</v>
+        <v>48.64</v>
       </c>
       <c r="I15">
-        <v>42</v>
+        <v>49.55</v>
       </c>
       <c r="J15">
-        <v>42.8</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49.09</v>
+      </c>
+      <c r="L15">
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13029</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>56.3</v>
+        <v>82.86</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>83.01</v>
       </c>
       <c r="E16">
-        <v>58.8</v>
+        <v>83.18</v>
       </c>
       <c r="F16">
-        <v>68.8</v>
+        <v>78.62</v>
       </c>
       <c r="G16">
-        <v>66.400000000000006</v>
+        <v>79.02</v>
       </c>
       <c r="H16">
-        <v>48.1</v>
+        <v>79.84</v>
       </c>
       <c r="I16">
-        <v>48.5</v>
+        <v>84.73</v>
       </c>
       <c r="J16">
-        <v>39</v>
+        <v>92.46</v>
       </c>
       <c r="K16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92.67</v>
+      </c>
+      <c r="L16">
+        <v>66.930000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13031</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>27.9</v>
+        <v>85.39</v>
       </c>
       <c r="D17">
-        <v>29.2</v>
+        <v>84.43</v>
       </c>
       <c r="E17">
-        <v>36.799999999999997</v>
+        <v>64.83</v>
       </c>
       <c r="F17">
-        <v>34.200000000000003</v>
+        <v>75.87</v>
       </c>
       <c r="G17">
-        <v>30.9</v>
+        <v>75.23</v>
       </c>
       <c r="H17">
-        <v>36.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="I17">
-        <v>37.200000000000003</v>
+        <v>84.77</v>
       </c>
       <c r="J17">
-        <v>39.200000000000003</v>
+        <v>86.84</v>
       </c>
       <c r="K17">
-        <v>44.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="L17">
+        <v>77.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>13033</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>42</v>
+        <v>77.98</v>
       </c>
       <c r="D18">
-        <v>45.4</v>
+        <v>76.459999999999994</v>
       </c>
       <c r="E18">
-        <v>39.9</v>
+        <v>84.64</v>
       </c>
       <c r="F18">
-        <v>31.3</v>
+        <v>83.93</v>
       </c>
       <c r="G18">
-        <v>39.799999999999997</v>
+        <v>72.58</v>
       </c>
       <c r="H18">
-        <v>43.6</v>
+        <v>71.75</v>
       </c>
       <c r="I18">
-        <v>39.9</v>
+        <v>71.19</v>
       </c>
       <c r="J18">
-        <v>54.6</v>
+        <v>69.53</v>
       </c>
       <c r="K18">
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70.08</v>
+      </c>
+      <c r="L18">
+        <v>77.290000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>13035</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>53.4</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>49.8</v>
+        <v>51.96</v>
       </c>
       <c r="E19">
-        <v>51.2</v>
+        <v>51.05</v>
       </c>
       <c r="F19">
-        <v>55.1</v>
+        <v>60.94</v>
       </c>
       <c r="G19">
-        <v>62.9</v>
+        <v>49.49</v>
       </c>
       <c r="H19">
-        <v>62.1</v>
+        <v>50.51</v>
       </c>
       <c r="I19">
-        <v>46.7</v>
+        <v>56.9</v>
       </c>
       <c r="J19">
-        <v>36.5</v>
+        <v>55.89</v>
       </c>
       <c r="K19">
-        <v>32.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>56.23</v>
+      </c>
+      <c r="L19">
+        <v>58.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>13037</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>82.4</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>76.3</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>63.6</v>
+        <v>48.35</v>
       </c>
       <c r="F20">
-        <v>72.7</v>
+        <v>52.38</v>
       </c>
       <c r="G20">
-        <v>77.2</v>
+        <v>52.38</v>
       </c>
       <c r="H20">
-        <v>72</v>
+        <v>65.48</v>
       </c>
       <c r="I20">
-        <v>72.599999999999994</v>
+        <v>78.569999999999993</v>
       </c>
       <c r="J20">
-        <v>76.400000000000006</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="K20">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63.1</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13039</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>32.299999999999997</v>
+        <v>59.78</v>
       </c>
       <c r="D21">
-        <v>30.2</v>
+        <v>57.4</v>
       </c>
       <c r="E21">
-        <v>33.1</v>
+        <v>66.790000000000006</v>
       </c>
       <c r="F21">
-        <v>35.1</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="G21">
-        <v>38.5</v>
+        <v>63.73</v>
       </c>
       <c r="H21">
-        <v>39.299999999999997</v>
+        <v>62.13</v>
       </c>
       <c r="I21">
-        <v>45.6</v>
+        <v>63.85</v>
       </c>
       <c r="J21">
-        <v>50.6</v>
+        <v>62.87</v>
       </c>
       <c r="K21">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62.13</v>
+      </c>
+      <c r="L21">
+        <v>63.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>13043</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>61.8</v>
+        <v>89.26</v>
       </c>
       <c r="D22">
-        <v>62.4</v>
+        <v>100</v>
       </c>
       <c r="E22">
-        <v>49</v>
+        <v>93.87</v>
       </c>
       <c r="F22">
-        <v>34.4</v>
+        <v>83.13</v>
       </c>
       <c r="G22">
-        <v>35.799999999999997</v>
+        <v>68.069999999999993</v>
       </c>
       <c r="H22">
-        <v>28.3</v>
+        <v>78.92</v>
       </c>
       <c r="I22">
-        <v>27.3</v>
+        <v>77.11</v>
       </c>
       <c r="J22">
-        <v>33.700000000000003</v>
+        <v>79.52</v>
       </c>
       <c r="K22">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78.92</v>
+      </c>
+      <c r="L22">
+        <v>91.24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>13045</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>42.3</v>
+        <v>81.09</v>
       </c>
       <c r="D23">
-        <v>41.8</v>
+        <v>75.36</v>
       </c>
       <c r="E23">
-        <v>44.4</v>
+        <v>64.28</v>
       </c>
       <c r="F23">
-        <v>45.7</v>
+        <v>65.010000000000005</v>
       </c>
       <c r="G23">
-        <v>44.9</v>
+        <v>64.19</v>
       </c>
       <c r="H23">
-        <v>46.3</v>
+        <v>67.28</v>
       </c>
       <c r="I23">
-        <v>50.3</v>
+        <v>68.22</v>
       </c>
       <c r="J23">
-        <v>49.7</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="K23">
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66.52</v>
+      </c>
+      <c r="L23">
+        <v>71.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>13047</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>44.9</v>
+        <v>66.83</v>
       </c>
       <c r="D24">
-        <v>39.9</v>
+        <v>64.34</v>
       </c>
       <c r="E24">
-        <v>39.700000000000003</v>
+        <v>59.67</v>
       </c>
       <c r="F24">
-        <v>46.2</v>
+        <v>60.72</v>
       </c>
       <c r="G24">
-        <v>40.700000000000003</v>
+        <v>60.22</v>
       </c>
       <c r="H24">
-        <v>40.9</v>
+        <v>57.74</v>
       </c>
       <c r="I24">
-        <v>48.6</v>
+        <v>59.11</v>
       </c>
       <c r="J24">
-        <v>47.5</v>
+        <v>58.36</v>
       </c>
       <c r="K24">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62.45</v>
+      </c>
+      <c r="L24">
+        <v>67.989999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13049</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>61.3</v>
+        <v>52.38</v>
       </c>
       <c r="D25">
-        <v>62.1</v>
+        <v>54.05</v>
       </c>
       <c r="E25">
-        <v>45.7</v>
+        <v>50.64</v>
       </c>
       <c r="F25">
-        <v>27.6</v>
+        <v>55.71</v>
       </c>
       <c r="G25">
-        <v>16.100000000000001</v>
+        <v>60</v>
       </c>
       <c r="H25">
-        <v>8.9</v>
+        <v>58.57</v>
       </c>
       <c r="I25">
-        <v>4.8</v>
+        <v>61.43</v>
       </c>
       <c r="J25">
-        <v>12.3</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60.71</v>
+      </c>
+      <c r="L25">
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>13051</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>49.9</v>
+        <v>65.97</v>
       </c>
       <c r="D26">
-        <v>54.6</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="E26">
-        <v>53.2</v>
+        <v>61.78</v>
       </c>
       <c r="F26">
-        <v>49.3</v>
+        <v>59.59</v>
       </c>
       <c r="G26">
-        <v>47</v>
+        <v>57.02</v>
       </c>
       <c r="H26">
-        <v>46.3</v>
+        <v>56.82</v>
       </c>
       <c r="I26">
-        <v>45.5</v>
+        <v>56.52</v>
       </c>
       <c r="J26">
-        <v>43.7</v>
+        <v>55.79</v>
       </c>
       <c r="K26">
-        <v>45.1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55.31</v>
+      </c>
+      <c r="L26">
+        <v>58.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>13053</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>48</v>
+        <v>48.56</v>
       </c>
       <c r="D27">
-        <v>44.1</v>
+        <v>38.97</v>
       </c>
       <c r="E27">
-        <v>44</v>
+        <v>29.35</v>
       </c>
       <c r="F27">
-        <v>44.6</v>
+        <v>25.76</v>
       </c>
       <c r="G27">
-        <v>49.5</v>
+        <v>35.369999999999997</v>
       </c>
       <c r="H27">
-        <v>46.1</v>
+        <v>34.06</v>
       </c>
       <c r="I27">
-        <v>45.6</v>
+        <v>28.82</v>
       </c>
       <c r="J27">
-        <v>48.4</v>
+        <v>34.5</v>
       </c>
       <c r="K27">
-        <v>47.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>37.99</v>
+      </c>
+      <c r="L27">
+        <v>41.14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>13055</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28">
-        <v>23.6</v>
+        <v>65.37</v>
       </c>
       <c r="D28">
-        <v>19.100000000000001</v>
+        <v>71.17</v>
       </c>
       <c r="E28">
-        <v>19.3</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="F28">
-        <v>19.7</v>
+        <v>69.180000000000007</v>
       </c>
       <c r="G28">
-        <v>17.600000000000001</v>
+        <v>64.05</v>
       </c>
       <c r="H28">
-        <v>20.8</v>
+        <v>68.88</v>
       </c>
       <c r="I28">
-        <v>23.5</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="J28">
-        <v>26.6</v>
+        <v>70.69</v>
       </c>
       <c r="K28">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72.209999999999994</v>
+      </c>
+      <c r="L28">
+        <v>76.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>13057</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>58.6</v>
+        <v>57.29</v>
       </c>
       <c r="D29">
-        <v>55.8</v>
+        <v>54.45</v>
       </c>
       <c r="E29">
-        <v>53.4</v>
+        <v>47.8</v>
       </c>
       <c r="F29">
-        <v>56.8</v>
+        <v>49.89</v>
       </c>
       <c r="G29">
-        <v>55.4</v>
+        <v>48.85</v>
       </c>
       <c r="H29">
-        <v>58.2</v>
+        <v>50.11</v>
       </c>
       <c r="I29">
-        <v>62.8</v>
+        <v>50.42</v>
       </c>
       <c r="J29">
-        <v>65.099999999999994</v>
+        <v>50.64</v>
       </c>
       <c r="K29">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49.11</v>
+      </c>
+      <c r="L29">
+        <v>49.09</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>13059</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C30">
-        <v>46.7</v>
+        <v>91.93</v>
       </c>
       <c r="D30">
-        <v>47.6</v>
+        <v>93.54</v>
       </c>
       <c r="E30">
-        <v>47.3</v>
+        <v>71.790000000000006</v>
       </c>
       <c r="F30">
-        <v>47</v>
+        <v>68.150000000000006</v>
       </c>
       <c r="G30">
-        <v>39.6</v>
+        <v>66.28</v>
       </c>
       <c r="H30">
-        <v>44.5</v>
+        <v>64.2</v>
       </c>
       <c r="I30">
-        <v>43.7</v>
+        <v>63.98</v>
       </c>
       <c r="J30">
-        <v>45.2</v>
+        <v>62.47</v>
       </c>
       <c r="K30">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61.54</v>
+      </c>
+      <c r="L30">
+        <v>65.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>13061</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>51.3</v>
+        <v>100</v>
       </c>
       <c r="D31">
-        <v>4.5999999999999996</v>
+        <v>100</v>
       </c>
       <c r="E31">
-        <v>9.4</v>
+        <v>63.83</v>
       </c>
       <c r="F31">
-        <v>24.7</v>
+        <v>91.67</v>
       </c>
       <c r="G31">
-        <v>31.7</v>
+        <v>45.83</v>
       </c>
       <c r="H31">
-        <v>40.700000000000003</v>
+        <v>35.42</v>
       </c>
       <c r="I31">
-        <v>52.6</v>
+        <v>45.83</v>
       </c>
       <c r="J31">
-        <v>59</v>
+        <v>43.75</v>
       </c>
       <c r="K31">
-        <v>55.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35.42</v>
+      </c>
+      <c r="L31">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>13063</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
-        <v>45.4</v>
+        <v>52.1</v>
       </c>
       <c r="D32">
-        <v>47.2</v>
+        <v>52.4</v>
       </c>
       <c r="E32">
-        <v>46.7</v>
+        <v>55.26</v>
       </c>
       <c r="F32">
-        <v>45.5</v>
+        <v>54.48</v>
       </c>
       <c r="G32">
-        <v>43</v>
+        <v>55.98</v>
       </c>
       <c r="H32">
-        <v>44.2</v>
+        <v>57.09</v>
       </c>
       <c r="I32">
-        <v>46.9</v>
+        <v>56.22</v>
       </c>
       <c r="J32">
-        <v>46.8</v>
+        <v>58.29</v>
       </c>
       <c r="K32">
-        <v>47.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59.05</v>
+      </c>
+      <c r="L32">
+        <v>57.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>13065</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>42.1</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>40.5</v>
+        <v>100</v>
       </c>
       <c r="E33">
-        <v>44.7</v>
+        <v>78.180000000000007</v>
       </c>
       <c r="F33">
-        <v>41.1</v>
+        <v>88.66</v>
       </c>
       <c r="G33">
-        <v>40.700000000000003</v>
+        <v>90.72</v>
       </c>
       <c r="H33">
-        <v>33.799999999999997</v>
+        <v>90.72</v>
       </c>
       <c r="I33">
-        <v>37.6</v>
+        <v>82.47</v>
       </c>
       <c r="J33">
-        <v>32</v>
+        <v>90.72</v>
       </c>
       <c r="K33">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>90.72</v>
+      </c>
+      <c r="L33">
+        <v>91.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>13067</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34">
-        <v>60.7</v>
+        <v>42.16</v>
       </c>
       <c r="D34">
-        <v>58.6</v>
+        <v>40.130000000000003</v>
       </c>
       <c r="E34">
-        <v>59.3</v>
+        <v>42.83</v>
       </c>
       <c r="F34">
-        <v>55</v>
+        <v>43.71</v>
       </c>
       <c r="G34">
-        <v>53.3</v>
+        <v>44.23</v>
       </c>
       <c r="H34">
-        <v>53.6</v>
+        <v>44.61</v>
       </c>
       <c r="I34">
-        <v>54.4</v>
+        <v>44.44</v>
       </c>
       <c r="J34">
-        <v>53</v>
+        <v>43.25</v>
       </c>
       <c r="K34">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42.86</v>
+      </c>
+      <c r="L34">
+        <v>42.27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>13069</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35">
-        <v>16.399999999999999</v>
+        <v>67.03</v>
       </c>
       <c r="D35">
-        <v>33.299999999999997</v>
+        <v>71.09</v>
       </c>
       <c r="E35">
-        <v>48.6</v>
+        <v>74.77</v>
       </c>
       <c r="F35">
-        <v>65.8</v>
+        <v>71.02</v>
       </c>
       <c r="G35">
-        <v>53.3</v>
+        <v>68.319999999999993</v>
       </c>
       <c r="H35">
-        <v>41.1</v>
+        <v>68.77</v>
       </c>
       <c r="I35">
-        <v>37.299999999999997</v>
+        <v>68.02</v>
       </c>
       <c r="J35">
-        <v>30.4</v>
+        <v>69.37</v>
       </c>
       <c r="K35">
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70.87</v>
+      </c>
+      <c r="L35">
+        <v>74.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>13071</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>92.34</v>
       </c>
       <c r="D36">
-        <v>48.4</v>
+        <v>89.13</v>
       </c>
       <c r="E36">
-        <v>47.2</v>
+        <v>76.11</v>
       </c>
       <c r="F36">
-        <v>48.6</v>
+        <v>79.48</v>
       </c>
       <c r="G36">
-        <v>51.8</v>
+        <v>77.92</v>
       </c>
       <c r="H36">
-        <v>52.5</v>
+        <v>75.45</v>
       </c>
       <c r="I36">
-        <v>50.3</v>
+        <v>71.3</v>
       </c>
       <c r="J36">
-        <v>53.3</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>48.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="L36">
+        <v>79.59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>13073</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37">
-        <v>44.1</v>
+        <v>70.08</v>
       </c>
       <c r="D37">
-        <v>39.799999999999997</v>
+        <v>56.15</v>
       </c>
       <c r="E37">
-        <v>37.4</v>
+        <v>47.21</v>
       </c>
       <c r="F37">
-        <v>37.299999999999997</v>
+        <v>53.46</v>
       </c>
       <c r="G37">
-        <v>41</v>
+        <v>55.69</v>
       </c>
       <c r="H37">
-        <v>45</v>
+        <v>57.69</v>
       </c>
       <c r="I37">
-        <v>47.1</v>
+        <v>58.78</v>
       </c>
       <c r="J37">
-        <v>48</v>
+        <v>58.43</v>
       </c>
       <c r="K37">
-        <v>48.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59.75</v>
+      </c>
+      <c r="L37">
+        <v>53.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>13075</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38">
-        <v>31.8</v>
+        <v>100</v>
       </c>
       <c r="D38">
-        <v>38.6</v>
+        <v>90.83</v>
       </c>
       <c r="E38">
-        <v>42.6</v>
+        <v>69.959999999999994</v>
       </c>
       <c r="F38">
-        <v>49.2</v>
+        <v>70.209999999999994</v>
       </c>
       <c r="G38">
-        <v>40.9</v>
+        <v>70.209999999999994</v>
       </c>
       <c r="H38">
-        <v>41.2</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="I38">
-        <v>36.1</v>
+        <v>54.26</v>
       </c>
       <c r="J38">
-        <v>32.6</v>
+        <v>54.61</v>
       </c>
       <c r="K38">
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54.61</v>
+      </c>
+      <c r="L38">
+        <v>78.19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>13077</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>45.4</v>
+        <v>70.66</v>
       </c>
       <c r="D39">
-        <v>48.7</v>
+        <v>67.819999999999993</v>
       </c>
       <c r="E39">
-        <v>47.1</v>
+        <v>62.6</v>
       </c>
       <c r="F39">
-        <v>50.4</v>
+        <v>60.33</v>
       </c>
       <c r="G39">
-        <v>50.7</v>
+        <v>59.86</v>
       </c>
       <c r="H39">
-        <v>57.6</v>
+        <v>58.77</v>
       </c>
       <c r="I39">
-        <v>58.4</v>
+        <v>61.22</v>
       </c>
       <c r="J39">
-        <v>60.8</v>
+        <v>59.92</v>
       </c>
       <c r="K39">
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59.29</v>
+      </c>
+      <c r="L39">
+        <v>62.64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>13079</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40">
-        <v>68.7</v>
+        <v>39.6</v>
       </c>
       <c r="D40">
-        <v>64.099999999999994</v>
+        <v>43.28</v>
       </c>
       <c r="E40">
-        <v>75</v>
+        <v>56.05</v>
       </c>
       <c r="F40">
-        <v>77.400000000000006</v>
+        <v>58.67</v>
       </c>
       <c r="G40">
-        <v>70.599999999999994</v>
+        <v>58.67</v>
       </c>
       <c r="H40">
-        <v>66.5</v>
+        <v>54</v>
       </c>
       <c r="I40">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="J40">
-        <v>62.1</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53.33</v>
+      </c>
+      <c r="L40">
+        <v>51.11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>13081</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>41.8</v>
+        <v>82.19</v>
       </c>
       <c r="D41">
-        <v>38.299999999999997</v>
+        <v>82.26</v>
       </c>
       <c r="E41">
-        <v>40.200000000000003</v>
+        <v>81.7</v>
       </c>
       <c r="F41">
-        <v>30.7</v>
+        <v>81.59</v>
       </c>
       <c r="G41">
-        <v>33.4</v>
+        <v>74.22</v>
       </c>
       <c r="H41">
-        <v>39</v>
+        <v>84.99</v>
       </c>
       <c r="I41">
-        <v>42.1</v>
+        <v>76.77</v>
       </c>
       <c r="J41">
-        <v>49.8</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="K41">
-        <v>59.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66.290000000000006</v>
+      </c>
+      <c r="L41">
+        <v>84.62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>13083</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42">
-        <v>54</v>
+        <v>78.53</v>
       </c>
       <c r="D42">
-        <v>48.1</v>
+        <v>75.31</v>
       </c>
       <c r="E42">
-        <v>47.5</v>
+        <v>57.77</v>
       </c>
       <c r="F42">
-        <v>37.5</v>
+        <v>74.56</v>
       </c>
       <c r="G42">
-        <v>53.6</v>
+        <v>68.64</v>
       </c>
       <c r="H42">
-        <v>40.9</v>
+        <v>66.86</v>
       </c>
       <c r="I42">
-        <v>47.8</v>
+        <v>78.11</v>
       </c>
       <c r="J42">
-        <v>52</v>
+        <v>83.43</v>
       </c>
       <c r="K42">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72.78</v>
+      </c>
+      <c r="L42">
+        <v>84.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>13085</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43">
-        <v>36.799999999999997</v>
+        <v>94.14</v>
       </c>
       <c r="D43">
-        <v>32.9</v>
+        <v>83.86</v>
       </c>
       <c r="E43">
-        <v>34.299999999999997</v>
+        <v>76.19</v>
       </c>
       <c r="F43">
-        <v>36.9</v>
+        <v>58.3</v>
       </c>
       <c r="G43">
-        <v>45.2</v>
+        <v>57.92</v>
       </c>
       <c r="H43">
-        <v>52</v>
+        <v>64.86</v>
       </c>
       <c r="I43">
-        <v>51.2</v>
+        <v>66.41</v>
       </c>
       <c r="J43">
-        <v>63.3</v>
+        <v>73.75</v>
       </c>
       <c r="K43">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82.63</v>
+      </c>
+      <c r="L43">
+        <v>86.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>13087</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44">
-        <v>46</v>
+        <v>69.88</v>
       </c>
       <c r="D44">
-        <v>37.5</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="E44">
-        <v>35.299999999999997</v>
+        <v>78.92</v>
       </c>
       <c r="F44">
-        <v>36.299999999999997</v>
+        <v>83.43</v>
       </c>
       <c r="G44">
-        <v>38.5</v>
+        <v>83.7</v>
       </c>
       <c r="H44">
-        <v>35.4</v>
+        <v>79.56</v>
       </c>
       <c r="I44">
-        <v>38</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="J44">
-        <v>35.5</v>
+        <v>72.38</v>
       </c>
       <c r="K44">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71.819999999999993</v>
+      </c>
+      <c r="L44">
+        <v>84.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>13089</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45">
-        <v>57.6</v>
+        <v>54.93</v>
       </c>
       <c r="D45">
-        <v>56.4</v>
+        <v>58.22</v>
       </c>
       <c r="E45">
-        <v>53.7</v>
+        <v>56.15</v>
       </c>
       <c r="F45">
-        <v>54.5</v>
+        <v>53.33</v>
       </c>
       <c r="G45">
-        <v>55.6</v>
+        <v>53.15</v>
       </c>
       <c r="H45">
-        <v>55.2</v>
+        <v>52.86</v>
       </c>
       <c r="I45">
-        <v>56.3</v>
+        <v>52.47</v>
       </c>
       <c r="J45">
-        <v>57.2</v>
+        <v>51.1</v>
       </c>
       <c r="K45">
-        <v>56.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51.06</v>
+      </c>
+      <c r="L45">
+        <v>49.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>13091</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46">
-        <v>41.1</v>
+        <v>94.81</v>
       </c>
       <c r="D46">
-        <v>44.8</v>
+        <v>100</v>
       </c>
       <c r="E46">
-        <v>43.9</v>
+        <v>85.41</v>
       </c>
       <c r="F46">
-        <v>41.1</v>
+        <v>70.72</v>
       </c>
       <c r="G46">
-        <v>35.799999999999997</v>
+        <v>71.38</v>
       </c>
       <c r="H46">
-        <v>33.9</v>
+        <v>66.12</v>
       </c>
       <c r="I46">
-        <v>35.1</v>
+        <v>62.83</v>
       </c>
       <c r="J46">
-        <v>32.4</v>
+        <v>65.13</v>
       </c>
       <c r="K46">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59.54</v>
+      </c>
+      <c r="L46">
+        <v>75.98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>13093</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>89.1</v>
+        <v>83.33</v>
       </c>
       <c r="D47">
-        <v>91.3</v>
+        <v>90.09</v>
       </c>
       <c r="E47">
-        <v>84.9</v>
+        <v>58.24</v>
       </c>
       <c r="F47">
-        <v>85.6</v>
+        <v>50.3</v>
       </c>
       <c r="G47">
-        <v>88.3</v>
+        <v>63.47</v>
       </c>
       <c r="H47">
-        <v>73.8</v>
+        <v>53.29</v>
       </c>
       <c r="I47">
-        <v>62.5</v>
+        <v>48.5</v>
       </c>
       <c r="J47">
-        <v>65.8</v>
+        <v>41.92</v>
       </c>
       <c r="K47">
-        <v>49.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>44.91</v>
+      </c>
+      <c r="L47">
+        <v>69.81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>13095</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C48">
-        <v>56.2</v>
+        <v>63.07</v>
       </c>
       <c r="D48">
-        <v>59.8</v>
+        <v>63.43</v>
       </c>
       <c r="E48">
-        <v>59.9</v>
+        <v>55.41</v>
       </c>
       <c r="F48">
-        <v>63.4</v>
+        <v>56.5</v>
       </c>
       <c r="G48">
-        <v>61.5</v>
+        <v>50.54</v>
       </c>
       <c r="H48">
-        <v>59.5</v>
+        <v>51.49</v>
       </c>
       <c r="I48">
-        <v>54.5</v>
+        <v>50.81</v>
       </c>
       <c r="J48">
-        <v>53.1</v>
+        <v>50.68</v>
       </c>
       <c r="K48">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48.85</v>
+      </c>
+      <c r="L48">
+        <v>59.76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>13097</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49">
-        <v>50.5</v>
+        <v>71.47</v>
       </c>
       <c r="D49">
-        <v>55</v>
+        <v>67.59</v>
       </c>
       <c r="E49">
-        <v>58.6</v>
+        <v>53.74</v>
       </c>
       <c r="F49">
-        <v>56.1</v>
+        <v>53.45</v>
       </c>
       <c r="G49">
-        <v>57.9</v>
+        <v>52.01</v>
       </c>
       <c r="H49">
-        <v>53.9</v>
+        <v>51.76</v>
       </c>
       <c r="I49">
-        <v>57</v>
+        <v>51.22</v>
       </c>
       <c r="J49">
-        <v>53.4</v>
+        <v>52.06</v>
       </c>
       <c r="K49">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51.07</v>
+      </c>
+      <c r="L49">
+        <v>51.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>13099</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C50">
-        <v>32.700000000000003</v>
+        <v>91.6</v>
       </c>
       <c r="D50">
-        <v>48.5</v>
+        <v>100</v>
       </c>
       <c r="E50">
-        <v>45.1</v>
+        <v>77.78</v>
       </c>
       <c r="F50">
-        <v>63.9</v>
+        <v>63.8</v>
       </c>
       <c r="G50">
-        <v>70.8</v>
+        <v>64.42</v>
       </c>
       <c r="H50">
-        <v>70.400000000000006</v>
+        <v>65.03</v>
       </c>
       <c r="I50">
-        <v>81.599999999999994</v>
+        <v>65.64</v>
       </c>
       <c r="J50">
-        <v>85.2</v>
+        <v>65.64</v>
       </c>
       <c r="K50">
-        <v>80.099999999999994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52.15</v>
+      </c>
+      <c r="L50">
+        <v>60.61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>13101</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>30.6</v>
+        <v>66.67</v>
       </c>
       <c r="D51">
-        <v>24.5</v>
+        <v>72.13</v>
       </c>
       <c r="E51">
-        <v>25</v>
+        <v>61.97</v>
       </c>
       <c r="F51">
-        <v>42.1</v>
+        <v>65.67</v>
       </c>
       <c r="G51">
-        <v>18.7</v>
+        <v>65.67</v>
       </c>
       <c r="H51">
-        <v>20</v>
+        <v>65.67</v>
       </c>
       <c r="I51">
-        <v>15.6</v>
+        <v>65.67</v>
       </c>
       <c r="J51">
-        <v>25.8</v>
+        <v>65.67</v>
       </c>
       <c r="K51">
-        <v>16.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92.54</v>
+      </c>
+      <c r="L51">
+        <v>68.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>13103</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52">
-        <v>43.8</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="D52">
-        <v>46.1</v>
+        <v>74.209999999999994</v>
       </c>
       <c r="E52">
-        <v>44.2</v>
+        <v>74.77</v>
       </c>
       <c r="F52">
-        <v>37.6</v>
+        <v>78.89</v>
       </c>
       <c r="G52">
-        <v>36.299999999999997</v>
+        <v>74.86</v>
       </c>
       <c r="H52">
-        <v>42.5</v>
+        <v>73.19</v>
       </c>
       <c r="I52">
-        <v>40.799999999999997</v>
+        <v>76.39</v>
       </c>
       <c r="J52">
-        <v>43.4</v>
+        <v>82.5</v>
       </c>
       <c r="K52">
-        <v>45.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85.42</v>
+      </c>
+      <c r="L52">
+        <v>67.62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>13105</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53">
-        <v>55.1</v>
+        <v>58.18</v>
       </c>
       <c r="D53">
+        <v>60.21</v>
+      </c>
+      <c r="E53">
+        <v>68.48</v>
+      </c>
+      <c r="F53">
         <v>60.7</v>
       </c>
-      <c r="E53">
-        <v>52.6</v>
-      </c>
-      <c r="F53">
-        <v>58.8</v>
-      </c>
       <c r="G53">
-        <v>50.5</v>
+        <v>58.25</v>
       </c>
       <c r="H53">
-        <v>50.3</v>
+        <v>57.54</v>
       </c>
       <c r="I53">
-        <v>42.6</v>
+        <v>60.7</v>
       </c>
       <c r="J53">
-        <v>45.3</v>
+        <v>55.44</v>
       </c>
       <c r="K53">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52.98</v>
+      </c>
+      <c r="L53">
+        <v>71.56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>13107</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>58.1</v>
+        <v>87.77</v>
       </c>
       <c r="D54">
-        <v>48.1</v>
+        <v>80.73</v>
       </c>
       <c r="E54">
-        <v>51.2</v>
+        <v>78.61</v>
       </c>
       <c r="F54">
-        <v>50.5</v>
+        <v>78.680000000000007</v>
       </c>
       <c r="G54">
-        <v>50.3</v>
+        <v>78.38</v>
       </c>
       <c r="H54">
-        <v>56.2</v>
+        <v>74.77</v>
       </c>
       <c r="I54">
-        <v>70.900000000000006</v>
+        <v>74.77</v>
       </c>
       <c r="J54">
-        <v>72.099999999999994</v>
+        <v>68.77</v>
       </c>
       <c r="K54">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72.37</v>
+      </c>
+      <c r="L54">
+        <v>72.34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>13109</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>57.5</v>
+        <v>97.14</v>
       </c>
       <c r="D55">
-        <v>60.1</v>
+        <v>100</v>
       </c>
       <c r="E55">
-        <v>46.2</v>
+        <v>91.07</v>
       </c>
       <c r="F55">
-        <v>35.6</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="G55">
-        <v>47.9</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="H55">
-        <v>47</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="I55">
-        <v>49.5</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="J55">
-        <v>64.2</v>
+        <v>72.97</v>
       </c>
       <c r="K55">
-        <v>69.900000000000006</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>74.319999999999993</v>
+      </c>
+      <c r="L55">
+        <v>70.319999999999993</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>13111</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56">
-        <v>56.5</v>
+        <v>33.9</v>
       </c>
       <c r="D56">
-        <v>63.8</v>
+        <v>35.590000000000003</v>
       </c>
       <c r="E56">
-        <v>67.5</v>
+        <v>34.6</v>
       </c>
       <c r="F56">
-        <v>62.9</v>
+        <v>41.38</v>
       </c>
       <c r="G56">
-        <v>65</v>
+        <v>41.38</v>
       </c>
       <c r="H56">
-        <v>68.3</v>
+        <v>40.39</v>
       </c>
       <c r="I56">
-        <v>70.599999999999994</v>
+        <v>51.72</v>
       </c>
       <c r="J56">
-        <v>51.8</v>
+        <v>49.26</v>
       </c>
       <c r="K56">
-        <v>48.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61.08</v>
+      </c>
+      <c r="L56">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>13113</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C57">
-        <v>67.900000000000006</v>
+        <v>48.94</v>
       </c>
       <c r="D57">
-        <v>60</v>
+        <v>46.62</v>
       </c>
       <c r="E57">
-        <v>56.9</v>
+        <v>53.25</v>
       </c>
       <c r="F57">
-        <v>55.7</v>
+        <v>54.52</v>
       </c>
       <c r="G57">
-        <v>55.8</v>
+        <v>57.09</v>
       </c>
       <c r="H57">
-        <v>53.2</v>
+        <v>59.37</v>
       </c>
       <c r="I57">
-        <v>54.2</v>
+        <v>63.65</v>
       </c>
       <c r="J57">
-        <v>59.4</v>
+        <v>63.56</v>
       </c>
       <c r="K57">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62.42</v>
+      </c>
+      <c r="L57">
+        <v>54.79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>13115</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C58">
-        <v>35.5</v>
+        <v>82.68</v>
       </c>
       <c r="D58">
-        <v>29.2</v>
+        <v>87.81</v>
       </c>
       <c r="E58">
-        <v>32.5</v>
+        <v>69.05</v>
       </c>
       <c r="F58">
-        <v>34.9</v>
+        <v>68.959999999999994</v>
       </c>
       <c r="G58">
-        <v>33.4</v>
+        <v>68.88</v>
       </c>
       <c r="H58">
-        <v>35.1</v>
+        <v>65.319999999999993</v>
       </c>
       <c r="I58">
-        <v>39.6</v>
+        <v>63.98</v>
       </c>
       <c r="J58">
-        <v>41.4</v>
+        <v>67.14</v>
       </c>
       <c r="K58">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63.67</v>
+      </c>
+      <c r="L58">
+        <v>64.05</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>13117</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59">
-        <v>64.599999999999994</v>
+        <v>57.3</v>
       </c>
       <c r="D59">
-        <v>66.099999999999994</v>
+        <v>55.13</v>
       </c>
       <c r="E59">
-        <v>66.599999999999994</v>
+        <v>46.8</v>
       </c>
       <c r="F59">
-        <v>67.8</v>
+        <v>48.72</v>
       </c>
       <c r="G59">
-        <v>67.2</v>
+        <v>51.25</v>
       </c>
       <c r="H59">
-        <v>67.8</v>
+        <v>53.16</v>
       </c>
       <c r="I59">
-        <v>68.5</v>
+        <v>52.73</v>
       </c>
       <c r="J59">
-        <v>64.400000000000006</v>
+        <v>51.68</v>
       </c>
       <c r="K59">
-        <v>61.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52.48</v>
+      </c>
+      <c r="L59">
+        <v>44.96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>13119</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60">
-        <v>28.7</v>
+        <v>42.11</v>
       </c>
       <c r="D60">
-        <v>20.6</v>
+        <v>44.41</v>
       </c>
       <c r="E60">
-        <v>26.2</v>
+        <v>47.39</v>
       </c>
       <c r="F60">
-        <v>35.6</v>
+        <v>50.2</v>
       </c>
       <c r="G60">
-        <v>28.5</v>
+        <v>49.02</v>
       </c>
       <c r="H60">
-        <v>43.1</v>
+        <v>50.2</v>
       </c>
       <c r="I60">
-        <v>44.3</v>
+        <v>50.2</v>
       </c>
       <c r="J60">
-        <v>42</v>
+        <v>49.8</v>
       </c>
       <c r="K60">
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>50.2</v>
+      </c>
+      <c r="L60">
+        <v>46.86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>13121</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C61">
-        <v>58.7</v>
+        <v>50.97</v>
       </c>
       <c r="D61">
-        <v>60</v>
+        <v>50.57</v>
       </c>
       <c r="E61">
-        <v>59</v>
+        <v>54.69</v>
       </c>
       <c r="F61">
-        <v>58.2</v>
+        <v>54.12</v>
       </c>
       <c r="G61">
-        <v>57.5</v>
+        <v>54.48</v>
       </c>
       <c r="H61">
-        <v>58.3</v>
+        <v>55.06</v>
       </c>
       <c r="I61">
-        <v>59.4</v>
+        <v>55.59</v>
       </c>
       <c r="J61">
-        <v>60</v>
+        <v>55.4</v>
       </c>
       <c r="K61">
-        <v>62.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55.63</v>
+      </c>
+      <c r="L61">
+        <v>55.91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>13123</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62">
-        <v>29.6</v>
+        <v>44.42</v>
       </c>
       <c r="D62">
-        <v>21.4</v>
+        <v>45.04</v>
       </c>
       <c r="E62">
-        <v>17.3</v>
+        <v>51.02</v>
       </c>
       <c r="F62">
-        <v>17.7</v>
+        <v>52.85</v>
       </c>
       <c r="G62">
-        <v>27.7</v>
+        <v>50.45</v>
       </c>
       <c r="H62">
-        <v>26.1</v>
+        <v>57.06</v>
       </c>
       <c r="I62">
-        <v>29.5</v>
+        <v>55.56</v>
       </c>
       <c r="J62">
-        <v>35.5</v>
+        <v>52.25</v>
       </c>
       <c r="K62">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52.25</v>
+      </c>
+      <c r="L62">
+        <v>47.03</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>13125</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>100</v>
       </c>
       <c r="D63">
-        <v>69.099999999999994</v>
+        <v>100</v>
       </c>
       <c r="E63">
-        <v>53.9</v>
+        <v>86.05</v>
       </c>
       <c r="F63">
-        <v>42.7</v>
+        <v>91.89</v>
       </c>
       <c r="G63">
-        <v>53.5</v>
+        <v>89.19</v>
       </c>
       <c r="H63">
-        <v>27</v>
+        <v>89.19</v>
       </c>
       <c r="I63">
-        <v>33.6</v>
+        <v>86.49</v>
       </c>
       <c r="J63">
-        <v>42.9</v>
+        <v>81.08</v>
       </c>
       <c r="K63">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>83.78</v>
+      </c>
+      <c r="L63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>13127</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C64">
-        <v>54.3</v>
+        <v>63.95</v>
       </c>
       <c r="D64">
-        <v>56.4</v>
+        <v>64.73</v>
       </c>
       <c r="E64">
-        <v>55.2</v>
+        <v>53.36</v>
       </c>
       <c r="F64">
-        <v>50.9</v>
+        <v>58.47</v>
       </c>
       <c r="G64">
-        <v>49.1</v>
+        <v>57.49</v>
       </c>
       <c r="H64">
-        <v>46.7</v>
+        <v>58.82</v>
       </c>
       <c r="I64">
-        <v>41.3</v>
+        <v>57.66</v>
       </c>
       <c r="J64">
-        <v>34.700000000000003</v>
+        <v>60.07</v>
       </c>
       <c r="K64">
-        <v>38.700000000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58.02</v>
+      </c>
+      <c r="L64">
+        <v>66.77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>13129</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C65">
-        <v>34.4</v>
+        <v>83.6</v>
       </c>
       <c r="D65">
-        <v>37.700000000000003</v>
+        <v>85.77</v>
       </c>
       <c r="E65">
-        <v>37.1</v>
+        <v>78.08</v>
       </c>
       <c r="F65">
-        <v>37.200000000000003</v>
+        <v>75.37</v>
       </c>
       <c r="G65">
-        <v>38.4</v>
+        <v>74.75</v>
       </c>
       <c r="H65">
-        <v>35.200000000000003</v>
+        <v>69.459999999999994</v>
       </c>
       <c r="I65">
-        <v>29.7</v>
+        <v>65.760000000000005</v>
       </c>
       <c r="J65">
-        <v>33.6</v>
+        <v>69.09</v>
       </c>
       <c r="K65">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70.44</v>
+      </c>
+      <c r="L65">
+        <v>81.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>13131</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66">
-        <v>39.4</v>
+        <v>68.290000000000006</v>
       </c>
       <c r="D66">
-        <v>29.9</v>
+        <v>69.34</v>
       </c>
       <c r="E66">
-        <v>44</v>
+        <v>64.02</v>
       </c>
       <c r="F66">
-        <v>55.1</v>
+        <v>69.459999999999994</v>
       </c>
       <c r="G66">
-        <v>49.6</v>
+        <v>68.11</v>
       </c>
       <c r="H66">
-        <v>59.4</v>
+        <v>70.540000000000006</v>
       </c>
       <c r="I66">
-        <v>53.9</v>
+        <v>69.19</v>
       </c>
       <c r="J66">
-        <v>52.6</v>
+        <v>64.86</v>
       </c>
       <c r="K66">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65.14</v>
+      </c>
+      <c r="L66">
+        <v>66.069999999999993</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>13133</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>77.099999999999994</v>
+        <v>71.63</v>
       </c>
       <c r="D67">
-        <v>83.7</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="E67">
-        <v>76.599999999999994</v>
+        <v>84.92</v>
       </c>
       <c r="F67">
-        <v>83.1</v>
+        <v>97.74</v>
       </c>
       <c r="G67">
-        <v>84.6</v>
+        <v>92.66</v>
       </c>
       <c r="H67">
-        <v>78.599999999999994</v>
+        <v>92.09</v>
       </c>
       <c r="I67">
-        <v>62.7</v>
+        <v>93.79</v>
       </c>
       <c r="J67">
-        <v>80.5</v>
+        <v>100</v>
       </c>
       <c r="K67">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L67">
+        <v>97.47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>13135</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68">
-        <v>47.8</v>
+        <v>59.78</v>
       </c>
       <c r="D68">
-        <v>50</v>
+        <v>58.43</v>
       </c>
       <c r="E68">
-        <v>48.9</v>
+        <v>63.06</v>
       </c>
       <c r="F68">
-        <v>50.6</v>
+        <v>58.82</v>
       </c>
       <c r="G68">
-        <v>51.2</v>
+        <v>56.71</v>
       </c>
       <c r="H68">
-        <v>52.8</v>
+        <v>57.57</v>
       </c>
       <c r="I68">
-        <v>52.8</v>
+        <v>57.23</v>
       </c>
       <c r="J68">
-        <v>52.1</v>
+        <v>55.9</v>
       </c>
       <c r="K68">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55.52</v>
+      </c>
+      <c r="L68">
+        <v>55.43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>13137</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69">
-        <v>48.3</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="D69">
-        <v>43.5</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="E69">
-        <v>41.6</v>
+        <v>50.25</v>
       </c>
       <c r="F69">
-        <v>35</v>
+        <v>56.06</v>
       </c>
       <c r="G69">
-        <v>39.4</v>
+        <v>55.88</v>
       </c>
       <c r="H69">
-        <v>40.700000000000003</v>
+        <v>59.17</v>
       </c>
       <c r="I69">
-        <v>44.2</v>
+        <v>61.59</v>
       </c>
       <c r="J69">
-        <v>47.3</v>
+        <v>63.15</v>
       </c>
       <c r="K69">
-        <v>48.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61.42</v>
+      </c>
+      <c r="L69">
+        <v>72.53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>13139</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70">
-        <v>37</v>
+        <v>56.41</v>
       </c>
       <c r="D70">
-        <v>37.1</v>
+        <v>54.66</v>
       </c>
       <c r="E70">
-        <v>36.5</v>
+        <v>54.31</v>
       </c>
       <c r="F70">
-        <v>39.1</v>
+        <v>51.12</v>
       </c>
       <c r="G70">
-        <v>37.799999999999997</v>
+        <v>50.92</v>
       </c>
       <c r="H70">
-        <v>36.9</v>
+        <v>51.61</v>
       </c>
       <c r="I70">
-        <v>32</v>
+        <v>51.3</v>
       </c>
       <c r="J70">
-        <v>31.5</v>
+        <v>52.65</v>
       </c>
       <c r="K70">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51.3</v>
+      </c>
+      <c r="L70">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>13141</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C71">
-        <v>100</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="D71">
-        <v>98.4</v>
+        <v>73.790000000000006</v>
       </c>
       <c r="E71">
-        <v>99.5</v>
+        <v>79.17</v>
       </c>
       <c r="F71">
-        <v>91.4</v>
+        <v>62.11</v>
       </c>
       <c r="G71">
-        <v>79.900000000000006</v>
+        <v>58.95</v>
       </c>
       <c r="H71">
-        <v>72.7</v>
+        <v>78.95</v>
       </c>
       <c r="I71">
-        <v>55.3</v>
+        <v>63.16</v>
       </c>
       <c r="J71">
-        <v>47.7</v>
+        <v>63.16</v>
       </c>
       <c r="K71">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49.47</v>
+      </c>
+      <c r="L71">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>13143</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C72">
-        <v>47.4</v>
+        <v>73.59</v>
       </c>
       <c r="D72">
-        <v>47.2</v>
+        <v>72.77</v>
       </c>
       <c r="E72">
-        <v>40.299999999999997</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="F72">
-        <v>40.1</v>
+        <v>82.66</v>
       </c>
       <c r="G72">
-        <v>37.799999999999997</v>
+        <v>83.82</v>
       </c>
       <c r="H72">
-        <v>39.200000000000003</v>
+        <v>81.790000000000006</v>
       </c>
       <c r="I72">
-        <v>30.7</v>
+        <v>79.19</v>
       </c>
       <c r="J72">
-        <v>37.4</v>
+        <v>83.24</v>
       </c>
       <c r="K72">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82.66</v>
+      </c>
+      <c r="L72">
+        <v>79.349999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>13145</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C73">
-        <v>51.4</v>
+        <v>72.73</v>
       </c>
       <c r="D73">
-        <v>51.9</v>
+        <v>73.930000000000007</v>
       </c>
       <c r="E73">
-        <v>58.3</v>
+        <v>63.19</v>
       </c>
       <c r="F73">
-        <v>63.4</v>
+        <v>67.63</v>
       </c>
       <c r="G73">
-        <v>61.7</v>
+        <v>69.36</v>
       </c>
       <c r="H73">
-        <v>48.8</v>
+        <v>69.650000000000006</v>
       </c>
       <c r="I73">
-        <v>49.8</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="J73">
-        <v>49.2</v>
+        <v>69.36</v>
       </c>
       <c r="K73">
-        <v>47.1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69.94</v>
+      </c>
+      <c r="L73">
+        <v>70.97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>13147</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C74">
-        <v>58.7</v>
+        <v>46.1</v>
       </c>
       <c r="D74">
-        <v>70.5</v>
+        <v>51.9</v>
       </c>
       <c r="E74">
-        <v>57</v>
+        <v>42.61</v>
       </c>
       <c r="F74">
-        <v>58.5</v>
+        <v>45.2</v>
       </c>
       <c r="G74">
-        <v>46.9</v>
+        <v>46.44</v>
       </c>
       <c r="H74">
-        <v>45.2</v>
+        <v>39.630000000000003</v>
       </c>
       <c r="I74">
-        <v>36.9</v>
+        <v>33.44</v>
       </c>
       <c r="J74">
-        <v>47.1</v>
+        <v>38.08</v>
       </c>
       <c r="K74">
-        <v>51.2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>40.25</v>
+      </c>
+      <c r="L74">
+        <v>47.97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>13149</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C75">
-        <v>54.5</v>
+        <v>60</v>
       </c>
       <c r="D75">
-        <v>45.5</v>
+        <v>63.41</v>
       </c>
       <c r="E75">
-        <v>52.6</v>
+        <v>74.36</v>
       </c>
       <c r="F75">
-        <v>36.200000000000003</v>
+        <v>75.64</v>
       </c>
       <c r="G75">
-        <v>46.9</v>
+        <v>68.59</v>
       </c>
       <c r="H75">
-        <v>41</v>
+        <v>64.739999999999995</v>
       </c>
       <c r="I75">
-        <v>41.7</v>
+        <v>75.64</v>
       </c>
       <c r="J75">
-        <v>35.9</v>
+        <v>77.56</v>
       </c>
       <c r="K75">
-        <v>54.6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>77.56</v>
+      </c>
+      <c r="L75">
+        <v>87.59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>13151</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C76">
-        <v>45.6</v>
+        <v>55.85</v>
       </c>
       <c r="D76">
-        <v>54.1</v>
+        <v>52.86</v>
       </c>
       <c r="E76">
-        <v>53.2</v>
+        <v>51.37</v>
       </c>
       <c r="F76">
-        <v>50</v>
+        <v>50.58</v>
       </c>
       <c r="G76">
+        <v>49.95</v>
+      </c>
+      <c r="H76">
+        <v>52.03</v>
+      </c>
+      <c r="I76">
+        <v>50.69</v>
+      </c>
+      <c r="J76">
+        <v>54.65</v>
+      </c>
+      <c r="K76">
         <v>57.2</v>
       </c>
-      <c r="H76">
-        <v>58.5</v>
-      </c>
-      <c r="I76">
-        <v>56</v>
-      </c>
-      <c r="J76">
-        <v>57.9</v>
-      </c>
-      <c r="K76">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>52.78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>13153</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C77">
-        <v>47</v>
+        <v>85.35</v>
       </c>
       <c r="D77">
-        <v>47.6</v>
+        <v>88.59</v>
       </c>
       <c r="E77">
-        <v>48.7</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="F77">
-        <v>44.3</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="G77">
-        <v>47.3</v>
+        <v>69.73</v>
       </c>
       <c r="H77">
-        <v>46.3</v>
+        <v>71.319999999999993</v>
       </c>
       <c r="I77">
-        <v>46.1</v>
+        <v>69.64</v>
       </c>
       <c r="J77">
-        <v>48.5</v>
+        <v>69.55</v>
       </c>
       <c r="K77">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69.73</v>
+      </c>
+      <c r="L77">
+        <v>70.459999999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>13155</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C78">
-        <v>92.4</v>
+        <v>76.34</v>
       </c>
       <c r="D78">
-        <v>92.9</v>
+        <v>84.62</v>
       </c>
       <c r="E78">
-        <v>68.3</v>
+        <v>82.31</v>
       </c>
       <c r="F78">
-        <v>71</v>
+        <v>83.97</v>
       </c>
       <c r="G78">
-        <v>49.1</v>
+        <v>64.89</v>
       </c>
       <c r="H78">
-        <v>35.1</v>
+        <v>64.12</v>
       </c>
       <c r="I78">
-        <v>42.2</v>
+        <v>66.41</v>
       </c>
       <c r="J78">
-        <v>44.8</v>
+        <v>66.41</v>
       </c>
       <c r="K78">
-        <v>53.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="L78">
+        <v>89.47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>13157</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C79">
-        <v>41</v>
+        <v>75.44</v>
       </c>
       <c r="D79">
-        <v>46.6</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="E79">
-        <v>50.2</v>
+        <v>61.97</v>
       </c>
       <c r="F79">
-        <v>54.5</v>
+        <v>62.23</v>
       </c>
       <c r="G79">
-        <v>48.7</v>
+        <v>60.78</v>
       </c>
       <c r="H79">
-        <v>51.6</v>
+        <v>60.89</v>
       </c>
       <c r="I79">
-        <v>49.2</v>
+        <v>65.59</v>
       </c>
       <c r="J79">
-        <v>41.9</v>
+        <v>70.06</v>
       </c>
       <c r="K79">
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71.959999999999994</v>
+      </c>
+      <c r="L79">
+        <v>68.62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>13159</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C80">
-        <v>32.5</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="D80">
-        <v>38.6</v>
+        <v>40.24</v>
       </c>
       <c r="E80">
-        <v>36.799999999999997</v>
+        <v>33</v>
       </c>
       <c r="F80">
-        <v>46.1</v>
+        <v>42.04</v>
       </c>
       <c r="G80">
-        <v>33.299999999999997</v>
+        <v>42.04</v>
       </c>
       <c r="H80">
-        <v>23.9</v>
+        <v>83.44</v>
       </c>
       <c r="I80">
-        <v>31</v>
+        <v>78.98</v>
       </c>
       <c r="J80">
-        <v>30.6</v>
+        <v>75.8</v>
       </c>
       <c r="K80">
-        <v>36.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72.61</v>
+      </c>
+      <c r="L80">
+        <v>71.69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>13161</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C81">
-        <v>62.1</v>
+        <v>100</v>
       </c>
       <c r="D81">
-        <v>75.599999999999994</v>
+        <v>100</v>
       </c>
       <c r="E81">
-        <v>80.3</v>
+        <v>85.31</v>
       </c>
       <c r="F81">
-        <v>68.400000000000006</v>
+        <v>87.76</v>
       </c>
       <c r="G81">
-        <v>45.7</v>
+        <v>85.23</v>
       </c>
       <c r="H81">
-        <v>48.5</v>
+        <v>72.569999999999993</v>
       </c>
       <c r="I81">
-        <v>48.3</v>
+        <v>82.7</v>
       </c>
       <c r="J81">
-        <v>42.1</v>
+        <v>81.010000000000005</v>
       </c>
       <c r="K81">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+        <v>79.319999999999993</v>
+      </c>
+      <c r="L81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>13163</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C82">
-        <v>48.3</v>
+        <v>69.03</v>
       </c>
       <c r="D82">
-        <v>39.700000000000003</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="E82">
-        <v>31.5</v>
+        <v>58.27</v>
       </c>
       <c r="F82">
-        <v>47.8</v>
+        <v>60.78</v>
       </c>
       <c r="G82">
-        <v>46.5</v>
+        <v>62.93</v>
       </c>
       <c r="H82">
-        <v>40.9</v>
+        <v>59.48</v>
       </c>
       <c r="I82">
-        <v>48.2</v>
+        <v>65.52</v>
       </c>
       <c r="J82">
-        <v>50.9</v>
+        <v>58.62</v>
       </c>
       <c r="K82">
-        <v>47.2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53.02</v>
+      </c>
+      <c r="L82">
+        <v>70.05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>13165</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C83">
-        <v>24.2</v>
+        <v>76.34</v>
       </c>
       <c r="D83">
-        <v>28.8</v>
+        <v>86.78</v>
       </c>
       <c r="E83">
-        <v>67.7</v>
+        <v>65.91</v>
       </c>
       <c r="F83">
-        <v>64.400000000000006</v>
+        <v>52.38</v>
       </c>
       <c r="G83">
-        <v>54.1</v>
+        <v>52.38</v>
       </c>
       <c r="H83">
-        <v>61.6</v>
+        <v>52.38</v>
       </c>
       <c r="I83">
-        <v>53.2</v>
+        <v>52.38</v>
       </c>
       <c r="J83">
-        <v>33.1</v>
+        <v>52.38</v>
       </c>
       <c r="K83">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52.38</v>
+      </c>
+      <c r="L83">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>13167</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84">
-        <v>45.1</v>
+        <v>69.3</v>
       </c>
       <c r="D84">
-        <v>34.700000000000003</v>
+        <v>56.64</v>
       </c>
       <c r="E84">
-        <v>31.4</v>
+        <v>46.62</v>
       </c>
       <c r="F84">
-        <v>38.6</v>
+        <v>52.43</v>
       </c>
       <c r="G84">
-        <v>46.7</v>
+        <v>59.22</v>
       </c>
       <c r="H84">
-        <v>34.6</v>
+        <v>62.14</v>
       </c>
       <c r="I84">
-        <v>47.4</v>
+        <v>62.14</v>
       </c>
       <c r="J84">
-        <v>27.1</v>
+        <v>59.22</v>
       </c>
       <c r="K84">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54.37</v>
+      </c>
+      <c r="L84">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>13169</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C85">
-        <v>61.3</v>
+        <v>79.2</v>
       </c>
       <c r="D85">
-        <v>52.3</v>
+        <v>79.72</v>
       </c>
       <c r="E85">
-        <v>49.1</v>
+        <v>74.8</v>
       </c>
       <c r="F85">
-        <v>47.9</v>
+        <v>68.36</v>
       </c>
       <c r="G85">
-        <v>49.5</v>
+        <v>70.78</v>
       </c>
       <c r="H85">
-        <v>47.5</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="I85">
-        <v>53.1</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="J85">
-        <v>63.5</v>
+        <v>64.34</v>
       </c>
       <c r="K85">
-        <v>61.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="L85">
+        <v>75.95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>13171</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C86">
-        <v>27.3</v>
+        <v>53.19</v>
       </c>
       <c r="D86">
-        <v>35</v>
+        <v>58.82</v>
       </c>
       <c r="E86">
-        <v>34.299999999999997</v>
+        <v>52.63</v>
       </c>
       <c r="F86">
-        <v>44.3</v>
+        <v>58.93</v>
       </c>
       <c r="G86">
-        <v>40.4</v>
+        <v>58.48</v>
       </c>
       <c r="H86">
-        <v>53.4</v>
+        <v>58.93</v>
       </c>
       <c r="I86">
-        <v>54.2</v>
+        <v>58.93</v>
       </c>
       <c r="J86">
-        <v>35.200000000000003</v>
+        <v>58.93</v>
       </c>
       <c r="K86">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58.93</v>
+      </c>
+      <c r="L86">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>13173</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C87">
-        <v>20.5</v>
+        <v>100</v>
       </c>
       <c r="D87">
-        <v>22.1</v>
+        <v>100</v>
       </c>
       <c r="E87">
-        <v>27.8</v>
+        <v>68.39</v>
       </c>
       <c r="F87">
-        <v>33.1</v>
+        <v>75.88</v>
       </c>
       <c r="G87">
-        <v>38.5</v>
+        <v>61.18</v>
       </c>
       <c r="H87">
-        <v>46.3</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="I87">
-        <v>40.700000000000003</v>
+        <v>51.76</v>
       </c>
       <c r="J87">
-        <v>31.1</v>
+        <v>51.76</v>
       </c>
       <c r="K87">
-        <v>51.7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51.76</v>
+      </c>
+      <c r="L87">
+        <v>60.27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>13175</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C88">
-        <v>49.8</v>
+        <v>79.38</v>
       </c>
       <c r="D88">
-        <v>43.2</v>
+        <v>77.83</v>
       </c>
       <c r="E88">
-        <v>49.2</v>
+        <v>75.040000000000006</v>
       </c>
       <c r="F88">
-        <v>49</v>
+        <v>76.13</v>
       </c>
       <c r="G88">
-        <v>49.2</v>
+        <v>76.28</v>
       </c>
       <c r="H88">
-        <v>39.6</v>
+        <v>75.989999999999995</v>
       </c>
       <c r="I88">
-        <v>41.7</v>
+        <v>76.87</v>
       </c>
       <c r="J88">
-        <v>44.4</v>
+        <v>76.28</v>
       </c>
       <c r="K88">
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+        <v>74.67</v>
+      </c>
+      <c r="L88">
+        <v>77.61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>13177</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C89">
-        <v>39.4</v>
+        <v>62.2</v>
       </c>
       <c r="D89">
-        <v>42.7</v>
+        <v>56.57</v>
       </c>
       <c r="E89">
-        <v>36.299999999999997</v>
+        <v>78.72</v>
       </c>
       <c r="F89">
-        <v>40</v>
+        <v>81.77</v>
       </c>
       <c r="G89">
-        <v>36</v>
+        <v>75.95</v>
       </c>
       <c r="H89">
-        <v>47.4</v>
+        <v>76.709999999999994</v>
       </c>
       <c r="I89">
-        <v>41.4</v>
+        <v>72.41</v>
       </c>
       <c r="J89">
-        <v>51.1</v>
+        <v>76.2</v>
       </c>
       <c r="K89">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76.2</v>
+      </c>
+      <c r="L89">
+        <v>73.41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>13179</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C90">
-        <v>38.5</v>
+        <v>43.5</v>
       </c>
       <c r="D90">
-        <v>34.5</v>
+        <v>40.86</v>
       </c>
       <c r="E90">
-        <v>38.200000000000003</v>
+        <v>60.9</v>
       </c>
       <c r="F90">
-        <v>38.6</v>
+        <v>57.23</v>
       </c>
       <c r="G90">
-        <v>35.4</v>
+        <v>55.87</v>
       </c>
       <c r="H90">
-        <v>31.4</v>
+        <v>54.3</v>
       </c>
       <c r="I90">
-        <v>35.5</v>
+        <v>54.8</v>
       </c>
       <c r="J90">
-        <v>38.299999999999997</v>
+        <v>52.94</v>
       </c>
       <c r="K90">
-        <v>41.2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53.65</v>
+      </c>
+      <c r="L90">
+        <v>63.65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>13181</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C91">
-        <v>22.2</v>
+        <v>64.52</v>
       </c>
       <c r="D91">
-        <v>16.899999999999999</v>
+        <v>70.97</v>
       </c>
       <c r="E91">
-        <v>19.8</v>
+        <v>62.26</v>
       </c>
       <c r="F91">
-        <v>50.7</v>
+        <v>72.53</v>
       </c>
       <c r="G91">
-        <v>40.799999999999997</v>
+        <v>64.84</v>
       </c>
       <c r="H91">
-        <v>44.7</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="I91">
-        <v>48.1</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="J91">
-        <v>51.7</v>
+        <v>60.44</v>
       </c>
       <c r="K91">
-        <v>54.1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="L91">
+        <v>71.739999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>13183</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C92">
-        <v>38.700000000000003</v>
+        <v>40.4</v>
       </c>
       <c r="D92">
-        <v>26.9</v>
+        <v>43</v>
       </c>
       <c r="E92">
-        <v>17.899999999999999</v>
+        <v>53.66</v>
       </c>
       <c r="F92">
-        <v>15.4</v>
+        <v>60.63</v>
       </c>
       <c r="G92">
-        <v>22.2</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="H92">
-        <v>20</v>
+        <v>68.5</v>
       </c>
       <c r="I92">
-        <v>25.3</v>
+        <v>69.290000000000006</v>
       </c>
       <c r="J92">
-        <v>43.2</v>
+        <v>68.5</v>
       </c>
       <c r="K92">
-        <v>40.4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76.38</v>
+      </c>
+      <c r="L92">
+        <v>62.71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>13185</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C93">
-        <v>49.6</v>
+        <v>60.03</v>
       </c>
       <c r="D93">
-        <v>51.1</v>
+        <v>60.65</v>
       </c>
       <c r="E93">
-        <v>48.8</v>
+        <v>51.89</v>
       </c>
       <c r="F93">
-        <v>49.2</v>
+        <v>54</v>
       </c>
       <c r="G93">
-        <v>51</v>
+        <v>54.92</v>
       </c>
       <c r="H93">
-        <v>49.9</v>
+        <v>59.75</v>
       </c>
       <c r="I93">
-        <v>46.7</v>
+        <v>59.34</v>
       </c>
       <c r="J93">
-        <v>48</v>
+        <v>60.61</v>
       </c>
       <c r="K93">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59.11</v>
+      </c>
+      <c r="L93">
+        <v>61.89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>13187</v>
       </c>
       <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <v>38.46</v>
+      </c>
+      <c r="D94">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="E94">
+        <v>36.31</v>
+      </c>
+      <c r="F94">
+        <v>35.65</v>
+      </c>
+      <c r="G94">
+        <v>41.23</v>
+      </c>
+      <c r="H94">
+        <v>45.13</v>
+      </c>
+      <c r="I94">
+        <v>47.91</v>
+      </c>
+      <c r="J94">
+        <v>45.13</v>
+      </c>
+      <c r="K94">
+        <v>47.91</v>
+      </c>
+      <c r="L94">
+        <v>63.94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>13193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>25.72</v>
+      </c>
+      <c r="D95">
+        <v>28.21</v>
+      </c>
+      <c r="E95">
+        <v>47.54</v>
+      </c>
+      <c r="F95">
+        <v>41.12</v>
+      </c>
+      <c r="G95">
+        <v>48.73</v>
+      </c>
+      <c r="H95">
+        <v>32.49</v>
+      </c>
+      <c r="I95">
+        <v>29.95</v>
+      </c>
+      <c r="J95">
+        <v>30.96</v>
+      </c>
+      <c r="K95">
+        <v>32.99</v>
+      </c>
+      <c r="L95">
+        <v>46.15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>13195</v>
+      </c>
+      <c r="B96" t="s">
         <v>94</v>
       </c>
-      <c r="C94">
-        <v>46.9</v>
-      </c>
-      <c r="D94">
-        <v>58</v>
-      </c>
-      <c r="E94">
-        <v>58</v>
-      </c>
-      <c r="F94">
-        <v>55.6</v>
-      </c>
-      <c r="G94">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="H94">
-        <v>62.7</v>
-      </c>
-      <c r="I94">
-        <v>51</v>
-      </c>
-      <c r="J94">
-        <v>53.7</v>
-      </c>
-      <c r="K94">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="C96">
+        <v>100</v>
+      </c>
+      <c r="D96">
+        <v>100</v>
+      </c>
+      <c r="E96">
+        <v>42.22</v>
+      </c>
+      <c r="F96">
+        <v>48.59</v>
+      </c>
+      <c r="G96">
+        <v>55.65</v>
+      </c>
+      <c r="H96">
+        <v>53.11</v>
+      </c>
+      <c r="I96">
+        <v>53.11</v>
+      </c>
+      <c r="J96">
+        <v>55.65</v>
+      </c>
+      <c r="K96">
+        <v>54.8</v>
+      </c>
+      <c r="L96">
+        <v>40.69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>13197</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>32.78</v>
+      </c>
+      <c r="D97">
+        <v>38.6</v>
+      </c>
+      <c r="E97">
+        <v>53.66</v>
+      </c>
+      <c r="F97">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="G97">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="H97">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="I97">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="J97">
+        <v>64.36</v>
+      </c>
+      <c r="K97">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="L97">
+        <v>71.739999999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>13189</v>
       </c>
-      <c r="B95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C95">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="D95">
-        <v>36.299999999999997</v>
-      </c>
-      <c r="E95">
-        <v>46.6</v>
-      </c>
-      <c r="F95">
-        <v>52.4</v>
-      </c>
-      <c r="G95">
-        <v>59.4</v>
-      </c>
-      <c r="H95">
-        <v>52.2</v>
-      </c>
-      <c r="I95">
-        <v>55.8</v>
-      </c>
-      <c r="J95">
-        <v>60.6</v>
-      </c>
-      <c r="K95">
-        <v>43.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>61.5</v>
+      </c>
+      <c r="D98">
+        <v>59.08</v>
+      </c>
+      <c r="E98">
+        <v>72.58</v>
+      </c>
+      <c r="F98">
+        <v>63.24</v>
+      </c>
+      <c r="G98">
+        <v>61.18</v>
+      </c>
+      <c r="H98">
+        <v>60.29</v>
+      </c>
+      <c r="I98">
+        <v>52.94</v>
+      </c>
+      <c r="J98">
+        <v>55.29</v>
+      </c>
+      <c r="K98">
+        <v>52.94</v>
+      </c>
+      <c r="L98">
+        <v>56.94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>13191</v>
       </c>
-      <c r="B96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96">
-        <v>34.9</v>
-      </c>
-      <c r="D96">
-        <v>55.7</v>
-      </c>
-      <c r="E96">
-        <v>55.9</v>
-      </c>
-      <c r="F96">
-        <v>53.4</v>
-      </c>
-      <c r="G96">
-        <v>60.3</v>
-      </c>
-      <c r="H96">
-        <v>69</v>
-      </c>
-      <c r="I96">
-        <v>14.1</v>
-      </c>
-      <c r="J96">
-        <v>14.5</v>
-      </c>
-      <c r="K96">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>13193</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
         <v>97</v>
       </c>
-      <c r="C97">
-        <v>60.9</v>
-      </c>
-      <c r="D97">
-        <v>55.8</v>
-      </c>
-      <c r="E97">
-        <v>60.7</v>
-      </c>
-      <c r="F97">
-        <v>69.5</v>
-      </c>
-      <c r="G97">
-        <v>65.3</v>
-      </c>
-      <c r="H97">
-        <v>65.3</v>
-      </c>
-      <c r="I97">
-        <v>70.599999999999994</v>
-      </c>
-      <c r="J97">
-        <v>62.6</v>
-      </c>
-      <c r="K97">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>13195</v>
-      </c>
-      <c r="B98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C98">
-        <v>44.7</v>
-      </c>
-      <c r="D98">
-        <v>54.2</v>
-      </c>
-      <c r="E98">
-        <v>62.9</v>
-      </c>
-      <c r="F98">
-        <v>64.2</v>
-      </c>
-      <c r="G98">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="H98">
-        <v>63.4</v>
-      </c>
-      <c r="I98">
-        <v>57.1</v>
-      </c>
-      <c r="J98">
-        <v>49.2</v>
-      </c>
-      <c r="K98">
-        <v>56.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>13197</v>
-      </c>
-      <c r="B99" t="s">
-        <v>99</v>
-      </c>
       <c r="C99">
-        <v>70.3</v>
+        <v>98.77</v>
       </c>
       <c r="D99">
-        <v>65.5</v>
+        <v>100</v>
       </c>
       <c r="E99">
-        <v>57</v>
+        <v>48.09</v>
       </c>
       <c r="F99">
-        <v>58.7</v>
+        <v>58.45</v>
       </c>
       <c r="G99">
-        <v>53.6</v>
+        <v>46.48</v>
       </c>
       <c r="H99">
-        <v>34.6</v>
+        <v>40.85</v>
       </c>
       <c r="I99">
-        <v>48.7</v>
+        <v>46.48</v>
       </c>
       <c r="J99">
-        <v>42.4</v>
+        <v>46.48</v>
       </c>
       <c r="K99">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46.48</v>
+      </c>
+      <c r="L99">
+        <v>50.77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>13199</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C100">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D100">
-        <v>55.6</v>
+        <v>74.56</v>
       </c>
       <c r="E100">
-        <v>52.7</v>
+        <v>62.38</v>
       </c>
       <c r="F100">
-        <v>48.4</v>
+        <v>74.62</v>
       </c>
       <c r="G100">
-        <v>38.200000000000003</v>
+        <v>66.290000000000006</v>
       </c>
       <c r="H100">
-        <v>33.5</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I100">
-        <v>33.299999999999997</v>
+        <v>66.67</v>
       </c>
       <c r="J100">
-        <v>38.299999999999997</v>
+        <v>55.68</v>
       </c>
       <c r="K100">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62.5</v>
+      </c>
+      <c r="L100">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>13201</v>
       </c>
       <c r="B101" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C101">
-        <v>45.2</v>
+        <v>92.31</v>
       </c>
       <c r="D101">
-        <v>55.9</v>
+        <v>97.06</v>
       </c>
       <c r="E101">
-        <v>62.8</v>
+        <v>65.59</v>
       </c>
       <c r="F101">
-        <v>63.5</v>
+        <v>77.78</v>
       </c>
       <c r="G101">
-        <v>76.5</v>
+        <v>77.78</v>
       </c>
       <c r="H101">
-        <v>78</v>
+        <v>79.010000000000005</v>
       </c>
       <c r="I101">
-        <v>69.099999999999994</v>
+        <v>69.14</v>
       </c>
       <c r="J101">
-        <v>67.5</v>
+        <v>75.31</v>
       </c>
       <c r="K101">
-        <v>54.4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64.2</v>
+      </c>
+      <c r="L101">
+        <v>71.64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>13205</v>
       </c>
       <c r="B102" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C102">
-        <v>59.9</v>
+        <v>73.849999999999994</v>
       </c>
       <c r="D102">
-        <v>63.4</v>
+        <v>80.06</v>
       </c>
       <c r="E102">
-        <v>64.5</v>
+        <v>72.7</v>
       </c>
       <c r="F102">
-        <v>58.1</v>
+        <v>64.39</v>
       </c>
       <c r="G102">
-        <v>54.9</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="H102">
-        <v>48.4</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="I102">
-        <v>47.9</v>
+        <v>59.83</v>
       </c>
       <c r="J102">
-        <v>36.200000000000003</v>
+        <v>49.86</v>
       </c>
       <c r="K102">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51.57</v>
+      </c>
+      <c r="L102">
+        <v>69.17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>13207</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C103">
-        <v>45.7</v>
+        <v>63.07</v>
       </c>
       <c r="D103">
-        <v>44.4</v>
+        <v>63.02</v>
       </c>
       <c r="E103">
-        <v>45.6</v>
+        <v>67.819999999999993</v>
       </c>
       <c r="F103">
-        <v>46.1</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="G103">
-        <v>49.7</v>
+        <v>69.61</v>
       </c>
       <c r="H103">
-        <v>47.5</v>
+        <v>65.72</v>
       </c>
       <c r="I103">
-        <v>59.6</v>
+        <v>69.61</v>
       </c>
       <c r="J103">
-        <v>58.1</v>
+        <v>69.959999999999994</v>
       </c>
       <c r="K103">
-        <v>51.4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69.959999999999994</v>
+      </c>
+      <c r="L103">
+        <v>65.67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>13209</v>
       </c>
       <c r="B104" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C104">
-        <v>59</v>
+        <v>50.43</v>
       </c>
       <c r="D104">
-        <v>58</v>
+        <v>53.91</v>
       </c>
       <c r="E104">
-        <v>46.7</v>
+        <v>55.93</v>
       </c>
       <c r="F104">
-        <v>61.7</v>
+        <v>45.6</v>
       </c>
       <c r="G104">
-        <v>51.9</v>
+        <v>41.6</v>
       </c>
       <c r="H104">
-        <v>53.7</v>
+        <v>42.4</v>
       </c>
       <c r="I104">
-        <v>53.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="J104">
-        <v>44.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="K104">
-        <v>31.9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="L104">
+        <v>48.39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>13211</v>
       </c>
       <c r="B105" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105">
-        <v>46</v>
+        <v>66.67</v>
       </c>
       <c r="D105">
-        <v>53.2</v>
+        <v>62.26</v>
       </c>
       <c r="E105">
-        <v>60.3</v>
+        <v>60.83</v>
       </c>
       <c r="F105">
-        <v>59.3</v>
+        <v>64.53</v>
       </c>
       <c r="G105">
-        <v>44.5</v>
+        <v>65.02</v>
       </c>
       <c r="H105">
-        <v>51.4</v>
+        <v>65.02</v>
       </c>
       <c r="I105">
-        <v>52</v>
+        <v>70.94</v>
       </c>
       <c r="J105">
-        <v>54.9</v>
+        <v>71.92</v>
       </c>
       <c r="K105">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71.92</v>
+      </c>
+      <c r="L105">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>13213</v>
       </c>
       <c r="B106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C106">
-        <v>40.6</v>
+        <v>61.25</v>
       </c>
       <c r="D106">
-        <v>30</v>
+        <v>55.36</v>
       </c>
       <c r="E106">
-        <v>31.1</v>
+        <v>68.98</v>
       </c>
       <c r="F106">
-        <v>23.8</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="G106">
-        <v>24.2</v>
+        <v>61.05</v>
       </c>
       <c r="H106">
-        <v>25.6</v>
+        <v>60.18</v>
       </c>
       <c r="I106">
-        <v>29.9</v>
+        <v>57.19</v>
       </c>
       <c r="J106">
-        <v>28.5</v>
+        <v>56.49</v>
       </c>
       <c r="K106">
-        <v>36.9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+        <v>56.84</v>
+      </c>
+      <c r="L106">
+        <v>60.54</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>13215</v>
       </c>
       <c r="B107" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C107">
-        <v>51.5</v>
+        <v>65.319999999999993</v>
       </c>
       <c r="D107">
-        <v>45.9</v>
+        <v>69.3</v>
       </c>
       <c r="E107">
-        <v>49.2</v>
+        <v>66.650000000000006</v>
       </c>
       <c r="F107">
-        <v>50.1</v>
+        <v>62.61</v>
       </c>
       <c r="G107">
-        <v>55.2</v>
+        <v>62.75</v>
       </c>
       <c r="H107">
-        <v>56.3</v>
+        <v>59.91</v>
       </c>
       <c r="I107">
-        <v>57</v>
+        <v>59.42</v>
       </c>
       <c r="J107">
-        <v>56.2</v>
+        <v>56.47</v>
       </c>
       <c r="K107">
-        <v>58.3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58.71</v>
+      </c>
+      <c r="L107">
+        <v>59.38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>13217</v>
       </c>
       <c r="B108" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C108">
-        <v>55.1</v>
+        <v>62.07</v>
       </c>
       <c r="D108">
-        <v>49.2</v>
+        <v>64.64</v>
       </c>
       <c r="E108">
-        <v>51.3</v>
+        <v>52.57</v>
       </c>
       <c r="F108">
-        <v>50.2</v>
+        <v>53.29</v>
       </c>
       <c r="G108">
-        <v>46</v>
+        <v>54.26</v>
       </c>
       <c r="H108">
-        <v>46.8</v>
+        <v>53.74</v>
       </c>
       <c r="I108">
-        <v>53.8</v>
+        <v>55.74</v>
       </c>
       <c r="J108">
-        <v>44.3</v>
+        <v>55.29</v>
       </c>
       <c r="K108">
-        <v>43.9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54.84</v>
+      </c>
+      <c r="L108">
+        <v>56.35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>13219</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C109">
-        <v>48.4</v>
+        <v>97.67</v>
       </c>
       <c r="D109">
-        <v>49.9</v>
+        <v>93.72</v>
       </c>
       <c r="E109">
-        <v>63.1</v>
+        <v>83.58</v>
       </c>
       <c r="F109">
-        <v>60.8</v>
+        <v>86.99</v>
       </c>
       <c r="G109">
-        <v>55.4</v>
+        <v>85.71</v>
       </c>
       <c r="H109">
-        <v>62.3</v>
+        <v>86.73</v>
       </c>
       <c r="I109">
-        <v>66.8</v>
+        <v>89.54</v>
       </c>
       <c r="J109">
-        <v>62.5</v>
+        <v>89.03</v>
       </c>
       <c r="K109">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+        <v>86.48</v>
+      </c>
+      <c r="L109">
+        <v>70.56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>13221</v>
       </c>
       <c r="B110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C110">
-        <v>51.3</v>
+        <v>63.49</v>
       </c>
       <c r="D110">
-        <v>50.3</v>
+        <v>56.02</v>
       </c>
       <c r="E110">
-        <v>45.9</v>
+        <v>59.46</v>
       </c>
       <c r="F110">
-        <v>48.7</v>
+        <v>66.67</v>
       </c>
       <c r="G110">
-        <v>63.9</v>
+        <v>66.67</v>
       </c>
       <c r="H110">
-        <v>72</v>
+        <v>66.67</v>
       </c>
       <c r="I110">
-        <v>73.2</v>
+        <v>66.67</v>
       </c>
       <c r="J110">
-        <v>76.2</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="K110">
-        <v>71.3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="L110">
+        <v>56.12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>13223</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C111">
-        <v>42.3</v>
+        <v>54.38</v>
       </c>
       <c r="D111">
-        <v>43.6</v>
+        <v>52.09</v>
       </c>
       <c r="E111">
-        <v>46.7</v>
+        <v>46.1</v>
       </c>
       <c r="F111">
-        <v>53.7</v>
+        <v>48.32</v>
       </c>
       <c r="G111">
-        <v>53.3</v>
+        <v>45.83</v>
       </c>
       <c r="H111">
-        <v>52.6</v>
+        <v>45.1</v>
       </c>
       <c r="I111">
-        <v>57.2</v>
+        <v>45.79</v>
       </c>
       <c r="J111">
-        <v>52</v>
+        <v>45.06</v>
       </c>
       <c r="K111">
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47.98</v>
+      </c>
+      <c r="L111">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>13225</v>
       </c>
       <c r="B112" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C112">
-        <v>30.7</v>
+        <v>40.229999999999997</v>
       </c>
       <c r="D112">
-        <v>26.5</v>
+        <v>43.63</v>
       </c>
       <c r="E112">
-        <v>28.5</v>
+        <v>42.9</v>
       </c>
       <c r="F112">
-        <v>39.799999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="G112">
-        <v>35.6</v>
+        <v>54.4</v>
       </c>
       <c r="H112">
-        <v>33.5</v>
+        <v>48.8</v>
       </c>
       <c r="I112">
-        <v>35.299999999999997</v>
+        <v>58.13</v>
       </c>
       <c r="J112">
-        <v>37.5</v>
+        <v>57.33</v>
       </c>
       <c r="K112">
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52.53</v>
+      </c>
+      <c r="L112">
+        <v>57.18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>13227</v>
       </c>
       <c r="B113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C113">
-        <v>36.9</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="D113">
-        <v>40</v>
+        <v>37.07</v>
       </c>
       <c r="E113">
-        <v>37.1</v>
+        <v>34.68</v>
       </c>
       <c r="F113">
-        <v>30.4</v>
+        <v>39.64</v>
       </c>
       <c r="G113">
-        <v>29.6</v>
+        <v>48.95</v>
       </c>
       <c r="H113">
-        <v>29.7</v>
+        <v>48.35</v>
       </c>
       <c r="I113">
-        <v>35.299999999999997</v>
+        <v>50.45</v>
       </c>
       <c r="J113">
-        <v>37.4</v>
+        <v>48.95</v>
       </c>
       <c r="K113">
-        <v>32.700000000000003</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+        <v>51.35</v>
+      </c>
+      <c r="L113">
+        <v>51.52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>13229</v>
       </c>
       <c r="B114" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C114">
-        <v>37.799999999999997</v>
+        <v>99</v>
       </c>
       <c r="D114">
-        <v>43.5</v>
+        <v>98.51</v>
       </c>
       <c r="E114">
-        <v>43.5</v>
+        <v>73.86</v>
       </c>
       <c r="F114">
-        <v>54.8</v>
+        <v>69.150000000000006</v>
       </c>
       <c r="G114">
-        <v>52.4</v>
+        <v>62.06</v>
       </c>
       <c r="H114">
-        <v>39.5</v>
+        <v>62.41</v>
       </c>
       <c r="I114">
-        <v>50.8</v>
+        <v>62.41</v>
       </c>
       <c r="J114">
-        <v>48.5</v>
+        <v>62.41</v>
       </c>
       <c r="K114">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62.06</v>
+      </c>
+      <c r="L114">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>13231</v>
       </c>
       <c r="B115" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C115">
-        <v>37.4</v>
+        <v>58.74</v>
       </c>
       <c r="D115">
-        <v>45.9</v>
+        <v>48.89</v>
       </c>
       <c r="E115">
-        <v>59.7</v>
+        <v>50.23</v>
       </c>
       <c r="F115">
-        <v>58.3</v>
+        <v>52.13</v>
       </c>
       <c r="G115">
-        <v>56.8</v>
+        <v>52.13</v>
       </c>
       <c r="H115">
-        <v>55.7</v>
+        <v>52.13</v>
       </c>
       <c r="I115">
-        <v>56.9</v>
+        <v>52.13</v>
       </c>
       <c r="J115">
-        <v>35.299999999999997</v>
+        <v>52.13</v>
       </c>
       <c r="K115">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+        <v>52.13</v>
+      </c>
+      <c r="L115">
+        <v>50.93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>13233</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C116">
-        <v>44.1</v>
+        <v>68.349999999999994</v>
       </c>
       <c r="D116">
-        <v>45.4</v>
+        <v>71.63</v>
       </c>
       <c r="E116">
-        <v>40.1</v>
+        <v>57.53</v>
       </c>
       <c r="F116">
-        <v>34.5</v>
+        <v>59.56</v>
       </c>
       <c r="G116">
-        <v>45.9</v>
+        <v>54.81</v>
       </c>
       <c r="H116">
-        <v>45.3</v>
+        <v>53.33</v>
       </c>
       <c r="I116">
-        <v>42.4</v>
+        <v>53.93</v>
       </c>
       <c r="J116">
-        <v>46.9</v>
+        <v>54.67</v>
       </c>
       <c r="K116">
-        <v>50.2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57.04</v>
+      </c>
+      <c r="L116">
+        <v>64.13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>13235</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C117">
-        <v>54.5</v>
+        <v>87.39</v>
       </c>
       <c r="D117">
-        <v>39.6</v>
+        <v>83.81</v>
       </c>
       <c r="E117">
-        <v>62.3</v>
+        <v>56.41</v>
       </c>
       <c r="F117">
-        <v>76.099999999999994</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="G117">
-        <v>85.9</v>
+        <v>61.03</v>
       </c>
       <c r="H117">
-        <v>87.4</v>
+        <v>62.5</v>
       </c>
       <c r="I117">
-        <v>78.8</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="J117">
-        <v>51.1</v>
+        <v>62.5</v>
       </c>
       <c r="K117">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48.53</v>
+      </c>
+      <c r="L117">
+        <v>96.59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>13237</v>
       </c>
       <c r="B118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C118">
-        <v>82.7</v>
+        <v>64.81</v>
       </c>
       <c r="D118">
-        <v>94.1</v>
+        <v>63.33</v>
       </c>
       <c r="E118">
-        <v>85.3</v>
+        <v>66.930000000000007</v>
       </c>
       <c r="F118">
-        <v>73.400000000000006</v>
+        <v>54.48</v>
       </c>
       <c r="G118">
-        <v>65.8</v>
+        <v>50.34</v>
       </c>
       <c r="H118">
-        <v>70.900000000000006</v>
+        <v>54.14</v>
       </c>
       <c r="I118">
-        <v>68.400000000000006</v>
+        <v>54.48</v>
       </c>
       <c r="J118">
-        <v>56.9</v>
+        <v>45.17</v>
       </c>
       <c r="K118">
-        <v>63.8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+        <v>43.1</v>
+      </c>
+      <c r="L118">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>13239</v>
       </c>
       <c r="B119" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C119">
-        <v>100</v>
+        <v>82.35</v>
       </c>
       <c r="D119">
-        <v>100</v>
+        <v>64.709999999999994</v>
       </c>
       <c r="E119">
-        <v>100</v>
+        <v>63.64</v>
       </c>
       <c r="F119">
-        <v>100</v>
+        <v>77.78</v>
       </c>
       <c r="G119">
-        <v>68.400000000000006</v>
+        <v>85.19</v>
       </c>
       <c r="H119">
-        <v>74.400000000000006</v>
+        <v>70.37</v>
       </c>
       <c r="I119">
-        <v>65.900000000000006</v>
+        <v>62.96</v>
       </c>
       <c r="J119">
-        <v>71.099999999999994</v>
+        <v>81.48</v>
       </c>
       <c r="K119">
-        <v>55.6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55.56</v>
+      </c>
+      <c r="L119">
+        <v>65.38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>13241</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C120">
-        <v>32.299999999999997</v>
+        <v>54.14</v>
       </c>
       <c r="D120">
-        <v>27.6</v>
+        <v>57.92</v>
       </c>
       <c r="E120">
-        <v>27.9</v>
+        <v>67.739999999999995</v>
       </c>
       <c r="F120">
-        <v>24.9</v>
+        <v>66.67</v>
       </c>
       <c r="G120">
-        <v>35.9</v>
+        <v>66.67</v>
       </c>
       <c r="H120">
-        <v>42.8</v>
+        <v>79.87</v>
       </c>
       <c r="I120">
-        <v>41.7</v>
+        <v>80.5</v>
       </c>
       <c r="J120">
-        <v>28.7</v>
+        <v>61.64</v>
       </c>
       <c r="K120">
-        <v>34.299999999999997</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54.09</v>
+      </c>
+      <c r="L120">
+        <v>77.37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>13243</v>
       </c>
       <c r="B121" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C121">
-        <v>77.5</v>
+        <v>42.55</v>
       </c>
       <c r="D121">
-        <v>65.5</v>
+        <v>43.01</v>
       </c>
       <c r="E121">
-        <v>41.2</v>
+        <v>38.89</v>
       </c>
       <c r="F121">
-        <v>54.6</v>
+        <v>33.07</v>
       </c>
       <c r="G121">
-        <v>61.1</v>
+        <v>15.75</v>
       </c>
       <c r="H121">
-        <v>72.599999999999994</v>
+        <v>15.75</v>
       </c>
       <c r="I121">
-        <v>81.599999999999994</v>
+        <v>24.41</v>
       </c>
       <c r="J121">
-        <v>79.7</v>
+        <v>32.28</v>
       </c>
       <c r="K121">
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+        <v>33.07</v>
+      </c>
+      <c r="L121">
+        <v>87.18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>13245</v>
       </c>
       <c r="B122" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C122">
-        <v>42.3</v>
+        <v>63.1</v>
       </c>
       <c r="D122">
-        <v>39.700000000000003</v>
+        <v>61.42</v>
       </c>
       <c r="E122">
-        <v>37</v>
+        <v>65.11</v>
       </c>
       <c r="F122">
-        <v>34.6</v>
+        <v>65.66</v>
       </c>
       <c r="G122">
-        <v>37.9</v>
+        <v>62.98</v>
       </c>
       <c r="H122">
-        <v>39.799999999999997</v>
+        <v>62.5</v>
       </c>
       <c r="I122">
-        <v>41.2</v>
+        <v>65.52</v>
       </c>
       <c r="J122">
-        <v>43.9</v>
+        <v>65.69</v>
       </c>
       <c r="K122">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+        <v>66.3</v>
+      </c>
+      <c r="L122">
+        <v>68.58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>13247</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C123">
-        <v>48.8</v>
+        <v>66.14</v>
       </c>
       <c r="D123">
-        <v>43</v>
+        <v>67.2</v>
       </c>
       <c r="E123">
-        <v>41.6</v>
+        <v>71.34</v>
       </c>
       <c r="F123">
-        <v>44.9</v>
+        <v>68.03</v>
       </c>
       <c r="G123">
-        <v>48.4</v>
+        <v>67.540000000000006</v>
       </c>
       <c r="H123">
-        <v>55.9</v>
+        <v>69.5</v>
       </c>
       <c r="I123">
-        <v>52.2</v>
+        <v>66.88</v>
       </c>
       <c r="J123">
-        <v>49</v>
+        <v>65.33</v>
       </c>
       <c r="K123">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+        <v>62.88</v>
+      </c>
+      <c r="L123">
+        <v>65.11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>13249</v>
       </c>
       <c r="B124" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C124">
-        <v>71.900000000000006</v>
+        <v>100</v>
       </c>
       <c r="D124">
-        <v>48.6</v>
+        <v>98.48</v>
       </c>
       <c r="E124">
-        <v>46.1</v>
+        <v>100</v>
       </c>
       <c r="F124">
-        <v>51.4</v>
+        <v>100</v>
       </c>
       <c r="G124">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H124">
-        <v>51.5</v>
+        <v>100</v>
       </c>
       <c r="I124">
-        <v>59.3</v>
+        <v>100</v>
       </c>
       <c r="J124">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="K124">
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="L124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>13251</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C125">
-        <v>46.9</v>
+        <v>61.95</v>
       </c>
       <c r="D125">
-        <v>48.3</v>
+        <v>67.25</v>
       </c>
       <c r="E125">
-        <v>51.8</v>
+        <v>73.33</v>
       </c>
       <c r="F125">
-        <v>57.5</v>
+        <v>73.33</v>
       </c>
       <c r="G125">
-        <v>53.3</v>
+        <v>73.33</v>
       </c>
       <c r="H125">
-        <v>52.9</v>
+        <v>74.290000000000006</v>
       </c>
       <c r="I125">
-        <v>56.5</v>
+        <v>73.33</v>
       </c>
       <c r="J125">
-        <v>50.9</v>
+        <v>73.33</v>
       </c>
       <c r="K125">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72.86</v>
+      </c>
+      <c r="L125">
+        <v>85.62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>13253</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C126">
-        <v>25.4</v>
+        <v>84.75</v>
       </c>
       <c r="D126">
-        <v>43.5</v>
+        <v>94.83</v>
       </c>
       <c r="E126">
-        <v>45.3</v>
+        <v>95.65</v>
       </c>
       <c r="F126">
-        <v>49.7</v>
+        <v>90.1</v>
       </c>
       <c r="G126">
-        <v>64.900000000000006</v>
+        <v>64.36</v>
       </c>
       <c r="H126">
-        <v>53.1</v>
+        <v>64.36</v>
       </c>
       <c r="I126">
-        <v>56.3</v>
+        <v>82.18</v>
       </c>
       <c r="J126">
-        <v>61.5</v>
+        <v>87.13</v>
       </c>
       <c r="K126">
-        <v>70.099999999999994</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82.18</v>
+      </c>
+      <c r="L126">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>13255</v>
       </c>
       <c r="B127" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C127">
-        <v>53.3</v>
+        <v>70.05</v>
       </c>
       <c r="D127">
-        <v>44.9</v>
+        <v>63.85</v>
       </c>
       <c r="E127">
-        <v>42.5</v>
+        <v>63.19</v>
       </c>
       <c r="F127">
-        <v>45.5</v>
+        <v>62.47</v>
       </c>
       <c r="G127">
-        <v>35.1</v>
+        <v>61.3</v>
       </c>
       <c r="H127">
-        <v>32.700000000000003</v>
+        <v>59.59</v>
       </c>
       <c r="I127">
-        <v>38.200000000000003</v>
+        <v>57.46</v>
       </c>
       <c r="J127">
-        <v>38.299999999999997</v>
+        <v>59.91</v>
       </c>
       <c r="K127">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57.57</v>
+      </c>
+      <c r="L127">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>13257</v>
       </c>
       <c r="B128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C128">
-        <v>43.1</v>
+        <v>53.33</v>
       </c>
       <c r="D128">
-        <v>47.2</v>
+        <v>51.35</v>
       </c>
       <c r="E128">
-        <v>55.7</v>
+        <v>36.31</v>
       </c>
       <c r="F128">
-        <v>52.8</v>
+        <v>50.86</v>
       </c>
       <c r="G128">
-        <v>36.299999999999997</v>
+        <v>59.11</v>
       </c>
       <c r="H128">
-        <v>36.299999999999997</v>
+        <v>58.42</v>
       </c>
       <c r="I128">
-        <v>31.2</v>
+        <v>59.45</v>
       </c>
       <c r="J128">
-        <v>25.8</v>
+        <v>59.79</v>
       </c>
       <c r="K128">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59.79</v>
+      </c>
+      <c r="L128">
+        <v>57.31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>13259</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C129">
-        <v>92.5</v>
+        <v>100</v>
       </c>
       <c r="D129">
-        <v>81.099999999999994</v>
+        <v>100</v>
       </c>
       <c r="E129">
-        <v>83.7</v>
+        <v>67.19</v>
       </c>
       <c r="F129">
-        <v>87.2</v>
+        <v>61.76</v>
       </c>
       <c r="G129">
-        <v>87.8</v>
+        <v>57.35</v>
       </c>
       <c r="H129">
-        <v>86.2</v>
+        <v>63.24</v>
       </c>
       <c r="I129">
-        <v>84.1</v>
+        <v>41.18</v>
       </c>
       <c r="J129">
-        <v>75.400000000000006</v>
+        <v>44.12</v>
       </c>
       <c r="K129">
-        <v>62.7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42.65</v>
+      </c>
+      <c r="L129">
+        <v>60.42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>13261</v>
       </c>
       <c r="B130" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C130">
-        <v>58.5</v>
+        <v>60.2</v>
       </c>
       <c r="D130">
-        <v>55.2</v>
+        <v>62.17</v>
       </c>
       <c r="E130">
-        <v>53.6</v>
+        <v>64.959999999999994</v>
       </c>
       <c r="F130">
-        <v>48.7</v>
+        <v>55.34</v>
       </c>
       <c r="G130">
-        <v>52.9</v>
+        <v>50.87</v>
       </c>
       <c r="H130">
-        <v>49.1</v>
+        <v>49.71</v>
       </c>
       <c r="I130">
-        <v>44.8</v>
+        <v>51.26</v>
       </c>
       <c r="J130">
-        <v>47</v>
+        <v>48.16</v>
       </c>
       <c r="K130">
-        <v>51.4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48.74</v>
+      </c>
+      <c r="L130">
+        <v>75.790000000000006</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>13263</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C131">
-        <v>87.1</v>
+        <v>54.55</v>
       </c>
       <c r="D131">
-        <v>62.8</v>
+        <v>39.29</v>
       </c>
       <c r="E131">
-        <v>48.8</v>
+        <v>23.6</v>
       </c>
       <c r="F131">
-        <v>63.2</v>
+        <v>26.83</v>
       </c>
       <c r="G131">
-        <v>54.8</v>
+        <v>26.83</v>
       </c>
       <c r="H131">
-        <v>62.1</v>
+        <v>25.61</v>
       </c>
       <c r="I131">
-        <v>93.7</v>
+        <v>25.61</v>
       </c>
       <c r="J131">
-        <v>48.7</v>
+        <v>24.39</v>
       </c>
       <c r="K131">
-        <v>45.3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+        <v>26.83</v>
+      </c>
+      <c r="L131">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>13265</v>
       </c>
       <c r="B132" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C132">
-        <v>30.8</v>
+        <v>100</v>
       </c>
       <c r="D132">
-        <v>21.7</v>
+        <v>100</v>
       </c>
       <c r="E132">
-        <v>22.2</v>
+        <v>53.57</v>
       </c>
       <c r="F132">
-        <v>16.7</v>
+        <v>50</v>
       </c>
       <c r="G132">
-        <v>46</v>
+        <v>43.33</v>
       </c>
       <c r="H132">
-        <v>30.3</v>
+        <v>50</v>
       </c>
       <c r="I132">
-        <v>37.299999999999997</v>
+        <v>30</v>
       </c>
       <c r="J132">
-        <v>44.9</v>
+        <v>33.33</v>
       </c>
       <c r="K132">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+        <v>33.33</v>
+      </c>
+      <c r="L132">
+        <v>76.92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>13267</v>
       </c>
       <c r="B133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C133">
-        <v>38.9</v>
+        <v>72.58</v>
       </c>
       <c r="D133">
-        <v>38.6</v>
+        <v>73.63</v>
       </c>
       <c r="E133">
-        <v>36.5</v>
+        <v>69.709999999999994</v>
       </c>
       <c r="F133">
-        <v>25.5</v>
+        <v>69.680000000000007</v>
       </c>
       <c r="G133">
-        <v>28.2</v>
+        <v>69.680000000000007</v>
       </c>
       <c r="H133">
-        <v>40.5</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="I133">
-        <v>37.6</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="J133">
-        <v>39.9</v>
+        <v>74.52</v>
       </c>
       <c r="K133">
-        <v>48.3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64.19</v>
+      </c>
+      <c r="L133">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>13269</v>
       </c>
       <c r="B134" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C134">
-        <v>49.4</v>
+        <v>64</v>
       </c>
       <c r="D134">
-        <v>35.6</v>
+        <v>71.069999999999993</v>
       </c>
       <c r="E134">
-        <v>48.6</v>
+        <v>71.069999999999993</v>
       </c>
       <c r="F134">
-        <v>47.9</v>
+        <v>77.98</v>
       </c>
       <c r="G134">
-        <v>49.8</v>
+        <v>73.39</v>
       </c>
       <c r="H134">
-        <v>46.7</v>
+        <v>57.8</v>
       </c>
       <c r="I134">
-        <v>61.1</v>
+        <v>60.55</v>
       </c>
       <c r="J134">
-        <v>45.7</v>
+        <v>56.88</v>
       </c>
       <c r="K134">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+        <v>60.55</v>
+      </c>
+      <c r="L134">
+        <v>63.33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>13271</v>
       </c>
       <c r="B135" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C135">
-        <v>67.3</v>
+        <v>72.989999999999995</v>
       </c>
       <c r="D135">
-        <v>69</v>
+        <v>84.68</v>
       </c>
       <c r="E135">
-        <v>60.4</v>
+        <v>60.44</v>
       </c>
       <c r="F135">
-        <v>58.7</v>
+        <v>65.45</v>
       </c>
       <c r="G135">
-        <v>36.9</v>
+        <v>66.67</v>
       </c>
       <c r="H135">
-        <v>37.299999999999997</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="I135">
-        <v>48.4</v>
+        <v>65.45</v>
       </c>
       <c r="J135">
-        <v>50</v>
+        <v>66.67</v>
       </c>
       <c r="K135">
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61.82</v>
+      </c>
+      <c r="L135">
+        <v>83.59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>13273</v>
       </c>
       <c r="B136" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C136">
-        <v>59.2</v>
+        <v>78.12</v>
       </c>
       <c r="D136">
-        <v>45.3</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="E136">
-        <v>31.6</v>
+        <v>59.06</v>
       </c>
       <c r="F136">
-        <v>33.200000000000003</v>
+        <v>63.31</v>
       </c>
       <c r="G136">
-        <v>33.299999999999997</v>
+        <v>61.87</v>
       </c>
       <c r="H136">
-        <v>25.1</v>
+        <v>58.99</v>
       </c>
       <c r="I136">
-        <v>29.7</v>
+        <v>58.27</v>
       </c>
       <c r="J136">
-        <v>26.3</v>
+        <v>49.64</v>
       </c>
       <c r="K136">
-        <v>32.299999999999997</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+        <v>47.48</v>
+      </c>
+      <c r="L136">
+        <v>59.81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>13275</v>
       </c>
       <c r="B137" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C137">
-        <v>56.4</v>
+        <v>93.05</v>
       </c>
       <c r="D137">
-        <v>59.7</v>
+        <v>98.9</v>
       </c>
       <c r="E137">
-        <v>58.2</v>
+        <v>87.22</v>
       </c>
       <c r="F137">
-        <v>59.9</v>
+        <v>87.46</v>
       </c>
       <c r="G137">
-        <v>49.4</v>
+        <v>84.44</v>
       </c>
       <c r="H137">
-        <v>59.9</v>
+        <v>85.4</v>
       </c>
       <c r="I137">
-        <v>51.9</v>
+        <v>86.83</v>
       </c>
       <c r="J137">
-        <v>60.2</v>
+        <v>81.27</v>
       </c>
       <c r="K137">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+        <v>80.63</v>
+      </c>
+      <c r="L137">
+        <v>91.62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>13277</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C138">
-        <v>39.700000000000003</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="D138">
-        <v>47</v>
+        <v>64.38</v>
       </c>
       <c r="E138">
-        <v>52</v>
+        <v>72.290000000000006</v>
       </c>
       <c r="F138">
-        <v>47.8</v>
+        <v>74.37</v>
       </c>
       <c r="G138">
-        <v>49.6</v>
+        <v>73.83</v>
       </c>
       <c r="H138">
-        <v>46.6</v>
+        <v>81.05</v>
       </c>
       <c r="I138">
-        <v>45.6</v>
+        <v>85.02</v>
       </c>
       <c r="J138">
-        <v>50.7</v>
+        <v>85.56</v>
       </c>
       <c r="K138">
-        <v>44.1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82.85</v>
+      </c>
+      <c r="L138">
+        <v>83.77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>13279</v>
       </c>
       <c r="B139" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C139">
-        <v>34.299999999999997</v>
+        <v>77.67</v>
       </c>
       <c r="D139">
-        <v>31</v>
+        <v>79.709999999999994</v>
       </c>
       <c r="E139">
-        <v>20.7</v>
+        <v>69.41</v>
       </c>
       <c r="F139">
-        <v>27.2</v>
+        <v>75.64</v>
       </c>
       <c r="G139">
-        <v>36.799999999999997</v>
+        <v>74.94</v>
       </c>
       <c r="H139">
-        <v>36.799999999999997</v>
+        <v>77.989999999999995</v>
       </c>
       <c r="I139">
-        <v>37.5</v>
+        <v>74.239999999999995</v>
       </c>
       <c r="J139">
-        <v>38.4</v>
+        <v>74.239999999999995</v>
       </c>
       <c r="K139">
-        <v>35.1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+        <v>74.709999999999994</v>
+      </c>
+      <c r="L139">
+        <v>76.959999999999994</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>13281</v>
       </c>
       <c r="B140" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C140">
-        <v>49.5</v>
+        <v>41.24</v>
       </c>
       <c r="D140">
-        <v>29.9</v>
+        <v>45.36</v>
       </c>
       <c r="E140">
-        <v>33.9</v>
+        <v>55.13</v>
       </c>
       <c r="F140">
-        <v>26.5</v>
+        <v>30.14</v>
       </c>
       <c r="G140">
-        <v>26.3</v>
+        <v>30.14</v>
       </c>
       <c r="H140">
-        <v>40.700000000000003</v>
+        <v>30.14</v>
       </c>
       <c r="I140">
-        <v>56.7</v>
+        <v>30.14</v>
       </c>
       <c r="J140">
-        <v>43.4</v>
+        <v>30.14</v>
       </c>
       <c r="K140">
-        <v>67.099999999999994</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+        <v>30.14</v>
+      </c>
+      <c r="L140">
+        <v>23.17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>13283</v>
       </c>
       <c r="B141" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C141">
-        <v>54.2</v>
+        <v>85.11</v>
       </c>
       <c r="D141">
-        <v>44.9</v>
+        <v>89.13</v>
       </c>
       <c r="E141">
-        <v>48.8</v>
+        <v>58.41</v>
       </c>
       <c r="F141">
-        <v>58.5</v>
+        <v>68.040000000000006</v>
       </c>
       <c r="G141">
-        <v>72.900000000000006</v>
+        <v>67.010000000000005</v>
       </c>
       <c r="H141">
-        <v>64.8</v>
+        <v>63.92</v>
       </c>
       <c r="I141">
-        <v>78.3</v>
+        <v>68.040000000000006</v>
       </c>
       <c r="J141">
-        <v>64.900000000000006</v>
+        <v>65.98</v>
       </c>
       <c r="K141">
-        <v>50.7</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="L141">
+        <v>81.58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>13285</v>
       </c>
       <c r="B142" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C142">
-        <v>56.1</v>
+        <v>75.319999999999993</v>
       </c>
       <c r="D142">
-        <v>48.7</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E142">
-        <v>51.7</v>
+        <v>71.680000000000007</v>
       </c>
       <c r="F142">
-        <v>48.8</v>
+        <v>69.13</v>
       </c>
       <c r="G142">
-        <v>44.5</v>
+        <v>65.19</v>
       </c>
       <c r="H142">
-        <v>50.4</v>
+        <v>68.64</v>
       </c>
       <c r="I142">
-        <v>52.2</v>
+        <v>65.09</v>
       </c>
       <c r="J142">
-        <v>55.3</v>
+        <v>64.89</v>
       </c>
       <c r="K142">
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+        <v>65.98</v>
+      </c>
+      <c r="L142">
+        <v>73.16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>13287</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C143">
-        <v>39.200000000000003</v>
+        <v>83.21</v>
       </c>
       <c r="D143">
-        <v>23.2</v>
+        <v>86.61</v>
       </c>
       <c r="E143">
-        <v>19.3</v>
+        <v>71.319999999999993</v>
       </c>
       <c r="F143">
-        <v>22.3</v>
+        <v>87.93</v>
       </c>
       <c r="G143">
-        <v>39.5</v>
+        <v>73.28</v>
       </c>
       <c r="H143">
-        <v>45.8</v>
+        <v>75.86</v>
       </c>
       <c r="I143">
-        <v>61</v>
+        <v>69.83</v>
       </c>
       <c r="J143">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K143">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+        <v>75.86</v>
+      </c>
+      <c r="L143">
+        <v>57.39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>13289</v>
       </c>
       <c r="B144" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C144">
-        <v>30.1</v>
+        <v>27.21</v>
       </c>
       <c r="D144">
-        <v>33.9</v>
+        <v>40.94</v>
       </c>
       <c r="E144">
-        <v>51.8</v>
+        <v>55.17</v>
       </c>
       <c r="F144">
-        <v>20.5</v>
+        <v>43.69</v>
       </c>
       <c r="G144">
-        <v>38.700000000000003</v>
+        <v>51.46</v>
       </c>
       <c r="H144">
-        <v>33.299999999999997</v>
+        <v>39.81</v>
       </c>
       <c r="I144">
-        <v>35.9</v>
+        <v>40.78</v>
       </c>
       <c r="J144">
-        <v>40.299999999999997</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="K144">
-        <v>33.1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42.72</v>
+      </c>
+      <c r="L144">
+        <v>50.57</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>13291</v>
       </c>
       <c r="B145" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C145">
-        <v>20.9</v>
+        <v>31.58</v>
       </c>
       <c r="D145">
-        <v>29.9</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="E145">
-        <v>40.6</v>
+        <v>32.04</v>
       </c>
       <c r="F145">
-        <v>30.1</v>
+        <v>24.72</v>
       </c>
       <c r="G145">
-        <v>41.2</v>
+        <v>46.07</v>
       </c>
       <c r="H145">
-        <v>51.3</v>
+        <v>66.849999999999994</v>
       </c>
       <c r="I145">
-        <v>41.9</v>
+        <v>86.52</v>
       </c>
       <c r="J145">
-        <v>50.7</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="K145">
-        <v>50.7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+        <v>79.209999999999994</v>
+      </c>
+      <c r="L145">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>13293</v>
       </c>
       <c r="B146" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C146">
-        <v>54.8</v>
+        <v>73.17</v>
       </c>
       <c r="D146">
-        <v>50.2</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="E146">
-        <v>55.4</v>
+        <v>62.25</v>
       </c>
       <c r="F146">
-        <v>58.6</v>
+        <v>76.64</v>
       </c>
       <c r="G146">
-        <v>53.8</v>
+        <v>75.989999999999995</v>
       </c>
       <c r="H146">
-        <v>46.8</v>
+        <v>70.069999999999993</v>
       </c>
       <c r="I146">
-        <v>43.5</v>
+        <v>72.37</v>
       </c>
       <c r="J146">
-        <v>43.6</v>
+        <v>69.739999999999995</v>
       </c>
       <c r="K146">
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70.72</v>
+      </c>
+      <c r="L146">
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>13295</v>
       </c>
       <c r="B147" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C147">
-        <v>40.700000000000003</v>
+        <v>61.27</v>
       </c>
       <c r="D147">
-        <v>41.3</v>
+        <v>57.02</v>
       </c>
       <c r="E147">
-        <v>51.6</v>
+        <v>51.9</v>
       </c>
       <c r="F147">
-        <v>51.9</v>
+        <v>56.16</v>
       </c>
       <c r="G147">
-        <v>45.6</v>
+        <v>56.16</v>
       </c>
       <c r="H147">
-        <v>41.9</v>
+        <v>52.61</v>
       </c>
       <c r="I147">
-        <v>34.9</v>
+        <v>52.37</v>
       </c>
       <c r="J147">
-        <v>36.6</v>
+        <v>55.21</v>
       </c>
       <c r="K147">
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+        <v>55.09</v>
+      </c>
+      <c r="L147">
+        <v>56.12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>13297</v>
       </c>
       <c r="B148" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C148">
-        <v>58.1</v>
+        <v>56.81</v>
       </c>
       <c r="D148">
-        <v>57.2</v>
+        <v>53.05</v>
       </c>
       <c r="E148">
-        <v>53.5</v>
+        <v>59.39</v>
       </c>
       <c r="F148">
-        <v>49.8</v>
+        <v>60.52</v>
       </c>
       <c r="G148">
-        <v>46.7</v>
+        <v>60.6</v>
       </c>
       <c r="H148">
-        <v>48</v>
+        <v>60.6</v>
       </c>
       <c r="I148">
-        <v>40.799999999999997</v>
+        <v>60.52</v>
       </c>
       <c r="J148">
-        <v>45</v>
+        <v>63.62</v>
       </c>
       <c r="K148">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="L148">
+        <v>69.09</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>13299</v>
       </c>
       <c r="B149" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C149">
-        <v>40.299999999999997</v>
+        <v>82.95</v>
       </c>
       <c r="D149">
-        <v>41.5</v>
+        <v>86.35</v>
       </c>
       <c r="E149">
-        <v>40.4</v>
+        <v>77.67</v>
       </c>
       <c r="F149">
-        <v>47.3</v>
+        <v>82.89</v>
       </c>
       <c r="G149">
-        <v>49.2</v>
+        <v>80.239999999999995</v>
       </c>
       <c r="H149">
-        <v>43.8</v>
+        <v>83.1</v>
       </c>
       <c r="I149">
-        <v>40.6</v>
+        <v>78.41</v>
       </c>
       <c r="J149">
-        <v>42.5</v>
+        <v>78.62</v>
       </c>
       <c r="K149">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71.89</v>
+      </c>
+      <c r="L149">
+        <v>81.209999999999994</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>13301</v>
       </c>
       <c r="B150" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C150">
-        <v>68.8</v>
+        <v>76.319999999999993</v>
       </c>
       <c r="D150">
-        <v>37</v>
+        <v>83.56</v>
       </c>
       <c r="E150">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F150">
-        <v>63.4</v>
+        <v>74.16</v>
       </c>
       <c r="G150">
-        <v>48.6</v>
+        <v>50.56</v>
       </c>
       <c r="H150">
-        <v>35.700000000000003</v>
+        <v>50.56</v>
       </c>
       <c r="I150">
-        <v>53.6</v>
+        <v>48.31</v>
       </c>
       <c r="J150">
-        <v>52</v>
+        <v>49.44</v>
       </c>
       <c r="K150">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+        <v>42.7</v>
+      </c>
+      <c r="L150">
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>13303</v>
       </c>
       <c r="B151" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C151">
-        <v>50.8</v>
+        <v>76.650000000000006</v>
       </c>
       <c r="D151">
-        <v>45.8</v>
+        <v>77.48</v>
       </c>
       <c r="E151">
-        <v>50.6</v>
+        <v>68.81</v>
       </c>
       <c r="F151">
-        <v>52</v>
+        <v>63.1</v>
       </c>
       <c r="G151">
-        <v>39.6</v>
+        <v>63.45</v>
       </c>
       <c r="H151">
-        <v>26.4</v>
+        <v>64.14</v>
       </c>
       <c r="I151">
-        <v>23.5</v>
+        <v>63.79</v>
       </c>
       <c r="J151">
-        <v>14.6</v>
+        <v>64.14</v>
       </c>
       <c r="K151">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64.14</v>
+      </c>
+      <c r="L151">
+        <v>75.510000000000005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>13305</v>
       </c>
       <c r="B152" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C152">
-        <v>39.700000000000003</v>
+        <v>98.63</v>
       </c>
       <c r="D152">
-        <v>42.1</v>
+        <v>88.35</v>
       </c>
       <c r="E152">
-        <v>40.9</v>
+        <v>70.650000000000006</v>
       </c>
       <c r="F152">
-        <v>33.200000000000003</v>
+        <v>66.25</v>
       </c>
       <c r="G152">
-        <v>36.700000000000003</v>
+        <v>62.53</v>
       </c>
       <c r="H152">
-        <v>45.8</v>
+        <v>61.28</v>
       </c>
       <c r="I152">
-        <v>30.6</v>
+        <v>53.62</v>
       </c>
       <c r="J152">
-        <v>33.799999999999997</v>
+        <v>58.18</v>
       </c>
       <c r="K152">
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57.35</v>
+      </c>
+      <c r="L152">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>13307</v>
       </c>
       <c r="B153" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C153">
         <v>100</v>
       </c>
       <c r="D153">
-        <v>100</v>
+        <v>68.75</v>
       </c>
       <c r="E153">
-        <v>96.1</v>
+        <v>51.16</v>
       </c>
       <c r="F153">
-        <v>79.5</v>
+        <v>68.75</v>
       </c>
       <c r="G153">
-        <v>78.400000000000006</v>
+        <v>68.75</v>
       </c>
       <c r="H153">
-        <v>67.099999999999994</v>
+        <v>68.75</v>
       </c>
       <c r="I153">
-        <v>59</v>
+        <v>68.75</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>53.12</v>
       </c>
       <c r="K153">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53.12</v>
+      </c>
+      <c r="L153">
+        <v>59.38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>13309</v>
       </c>
       <c r="B154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C154">
-        <v>38.5</v>
+        <v>81.94</v>
       </c>
       <c r="D154">
-        <v>48.6</v>
+        <v>94.29</v>
       </c>
       <c r="E154">
-        <v>54.6</v>
+        <v>66.67</v>
       </c>
       <c r="F154">
-        <v>47.8</v>
+        <v>77.650000000000006</v>
       </c>
       <c r="G154">
-        <v>51.6</v>
+        <v>75.290000000000006</v>
       </c>
       <c r="H154">
-        <v>69.3</v>
+        <v>67.06</v>
       </c>
       <c r="I154">
-        <v>58.7</v>
+        <v>70.59</v>
       </c>
       <c r="J154">
-        <v>87.2</v>
+        <v>54.12</v>
       </c>
       <c r="K154">
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="L154">
+        <v>70.510000000000005</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>13311</v>
       </c>
       <c r="B155" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C155">
-        <v>6.2</v>
+        <v>42.86</v>
       </c>
       <c r="D155">
-        <v>27.3</v>
+        <v>45.88</v>
       </c>
       <c r="E155">
-        <v>30.6</v>
+        <v>39.270000000000003</v>
       </c>
       <c r="F155">
-        <v>44.8</v>
+        <v>35.18</v>
       </c>
       <c r="G155">
-        <v>45.2</v>
+        <v>41.69</v>
       </c>
       <c r="H155">
-        <v>51.8</v>
+        <v>47.23</v>
       </c>
       <c r="I155">
-        <v>44</v>
+        <v>47.56</v>
       </c>
       <c r="J155">
-        <v>50.6</v>
+        <v>45.93</v>
       </c>
       <c r="K155">
-        <v>35.9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48.53</v>
+      </c>
+      <c r="L155">
+        <v>52.28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>13313</v>
       </c>
       <c r="B156" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C156">
-        <v>33.4</v>
+        <v>64</v>
       </c>
       <c r="D156">
-        <v>31.8</v>
+        <v>64.7</v>
       </c>
       <c r="E156">
-        <v>33.200000000000003</v>
+        <v>56.06</v>
       </c>
       <c r="F156">
-        <v>28.6</v>
+        <v>59.6</v>
       </c>
       <c r="G156">
-        <v>31.2</v>
+        <v>57.04</v>
       </c>
       <c r="H156">
-        <v>32.1</v>
+        <v>56.67</v>
       </c>
       <c r="I156">
-        <v>32.6</v>
+        <v>57.22</v>
       </c>
       <c r="J156">
-        <v>30.2</v>
+        <v>54.84</v>
       </c>
       <c r="K156">
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+        <v>53.87</v>
+      </c>
+      <c r="L156">
+        <v>67.94</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>13315</v>
       </c>
       <c r="B157" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C157">
-        <v>42.9</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="D157">
-        <v>44.4</v>
+        <v>71.3</v>
       </c>
       <c r="E157">
-        <v>36</v>
+        <v>74.77</v>
       </c>
       <c r="F157">
-        <v>48.6</v>
+        <v>88.3</v>
       </c>
       <c r="G157">
-        <v>38.1</v>
+        <v>91.49</v>
       </c>
       <c r="H157">
-        <v>35.700000000000003</v>
+        <v>71.28</v>
       </c>
       <c r="I157">
-        <v>38.299999999999997</v>
+        <v>65.959999999999994</v>
       </c>
       <c r="J157">
-        <v>32.200000000000003</v>
+        <v>70.209999999999994</v>
       </c>
       <c r="K157">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="L157">
+        <v>63.46</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>13317</v>
       </c>
       <c r="B158" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C158">
-        <v>81.400000000000006</v>
+        <v>68.97</v>
       </c>
       <c r="D158">
-        <v>85.6</v>
+        <v>75.650000000000006</v>
       </c>
       <c r="E158">
-        <v>86.9</v>
+        <v>59.86</v>
       </c>
       <c r="F158">
-        <v>88.3</v>
+        <v>77.88</v>
       </c>
       <c r="G158">
-        <v>84.7</v>
+        <v>77.88</v>
       </c>
       <c r="H158">
-        <v>73.7</v>
+        <v>77.88</v>
       </c>
       <c r="I158">
-        <v>63.6</v>
+        <v>77.88</v>
       </c>
       <c r="J158">
-        <v>48.8</v>
+        <v>72.569999999999993</v>
       </c>
       <c r="K158">
-        <v>32.700000000000003</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+        <v>61.95</v>
+      </c>
+      <c r="L158">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>13319</v>
       </c>
       <c r="B159" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C159">
-        <v>45.4</v>
+        <v>74.53</v>
       </c>
       <c r="D159">
-        <v>38.799999999999997</v>
+        <v>74.319999999999993</v>
       </c>
       <c r="E159">
-        <v>44.6</v>
+        <v>76.430000000000007</v>
       </c>
       <c r="F159">
-        <v>41.4</v>
+        <v>80.92</v>
       </c>
       <c r="G159">
-        <v>29.1</v>
+        <v>78.63</v>
       </c>
       <c r="H159">
-        <v>24.1</v>
+        <v>67.180000000000007</v>
       </c>
       <c r="I159">
-        <v>37</v>
+        <v>50.38</v>
       </c>
       <c r="J159">
-        <v>35.9</v>
+        <v>64.89</v>
       </c>
       <c r="K159">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48.09</v>
+      </c>
+      <c r="L159">
+        <v>57.66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>13321</v>
       </c>
       <c r="B160" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C160">
-        <v>44.6</v>
+        <v>45.71</v>
       </c>
       <c r="D160">
-        <v>51.7</v>
+        <v>51.18</v>
       </c>
       <c r="E160">
-        <v>56</v>
+        <v>57.67</v>
       </c>
       <c r="F160">
-        <v>58.3</v>
+        <v>52.55</v>
       </c>
       <c r="G160">
-        <v>58.4</v>
+        <v>51.91</v>
       </c>
       <c r="H160">
-        <v>56.6</v>
+        <v>47.13</v>
       </c>
       <c r="I160">
-        <v>52.2</v>
+        <v>41.4</v>
       </c>
       <c r="J160">
-        <v>47.1</v>
+        <v>54.78</v>
       </c>
       <c r="K160">
-        <v>45.3</v>
+        <v>54.78</v>
+      </c>
+      <c r="L160">
+        <v>59.45</v>
       </c>
     </row>
   </sheetData>
